--- a/Code/Results/Cases/Case_2_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_line/pl_mw.xlsx
@@ -415,31 +415,31 @@
         <v>2.490489251751626</v>
       </c>
       <c r="C2">
-        <v>0.3877274772851251</v>
+        <v>0.387727477285182</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1706394667622959</v>
+        <v>0.1706394667622675</v>
       </c>
       <c r="F2">
-        <v>2.067596008378501</v>
+        <v>2.06759600837853</v>
       </c>
       <c r="G2">
-        <v>1.622880422168734</v>
+        <v>1.622880422168762</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1591939790513131</v>
+        <v>0.1591939790513237</v>
       </c>
       <c r="J2">
-        <v>0.6216666215763951</v>
+        <v>0.6216666215764235</v>
       </c>
       <c r="K2">
-        <v>0.2949945159705649</v>
+        <v>0.2949945159705578</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.146519402877061</v>
+        <v>2.146519402876947</v>
       </c>
       <c r="C3">
-        <v>0.3361665597819865</v>
+        <v>0.3361665597824128</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.147224946448528</v>
+        <v>0.1472249464485245</v>
       </c>
       <c r="F3">
         <v>1.797625756711355</v>
       </c>
       <c r="G3">
-        <v>1.456349348841599</v>
+        <v>1.456349348841613</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1519947727779716</v>
+        <v>0.1519947727779574</v>
       </c>
       <c r="J3">
-        <v>0.5356467992274574</v>
+        <v>0.5356467992274716</v>
       </c>
       <c r="K3">
-        <v>0.2546849261453445</v>
+        <v>0.2546849261453161</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.938470347718436</v>
+        <v>1.938470347718464</v>
       </c>
       <c r="C4">
-        <v>0.3049053138078648</v>
+        <v>0.3049053138079501</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1330224008200638</v>
+        <v>0.1330224008200389</v>
       </c>
       <c r="F4">
-        <v>1.635705203598164</v>
+        <v>1.635705203598178</v>
       </c>
       <c r="G4">
-        <v>1.358027834979552</v>
+        <v>1.358027834979566</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1479911593936798</v>
+        <v>0.1479911593937118</v>
       </c>
       <c r="J4">
-        <v>0.4835867466056101</v>
+        <v>0.4835867466055959</v>
       </c>
       <c r="K4">
         <v>0.230235301291863</v>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.854358849140596</v>
+        <v>1.85435884914051</v>
       </c>
       <c r="C5">
         <v>0.2922467259550956</v>
@@ -535,25 +535,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1272713346845045</v>
+        <v>0.127271334684508</v>
       </c>
       <c r="F5">
-        <v>1.57056765759323</v>
+        <v>1.570567657593216</v>
       </c>
       <c r="G5">
-        <v>1.318840414467175</v>
+        <v>1.318840414467161</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1464540111371768</v>
+        <v>0.1464540111371981</v>
       </c>
       <c r="J5">
-        <v>0.4625313081160769</v>
+        <v>0.4625313081160414</v>
       </c>
       <c r="K5">
-        <v>0.2203343225918744</v>
+        <v>0.2203343225918672</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>1.840429322701198</v>
       </c>
       <c r="C6">
-        <v>0.2901491173328026</v>
+        <v>0.2901491173327599</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1263183858535371</v>
+        <v>0.1263183858535299</v>
       </c>
       <c r="F6">
-        <v>1.559799423885792</v>
+        <v>1.559799423885778</v>
       </c>
       <c r="G6">
-        <v>1.31238348651118</v>
+        <v>1.312383486511166</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1462041814563513</v>
+        <v>0.1462041814563797</v>
       </c>
       <c r="J6">
         <v>0.4590438533868593</v>
       </c>
       <c r="K6">
-        <v>0.2186936815083627</v>
+        <v>0.2186936815083556</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.937333430127893</v>
+        <v>1.937333430127865</v>
       </c>
       <c r="C7">
-        <v>0.3047342933865309</v>
+        <v>0.3047342933863035</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1329447008430655</v>
+        <v>0.132944700843062</v>
       </c>
       <c r="F7">
-        <v>1.634823459941501</v>
+        <v>1.634823459941515</v>
       </c>
       <c r="G7">
         <v>1.357495915886574</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1479700598950018</v>
+        <v>0.1479700598949805</v>
       </c>
       <c r="J7">
-        <v>0.4833021785766007</v>
+        <v>0.4833021785765723</v>
       </c>
       <c r="K7">
-        <v>0.2301015369425556</v>
+        <v>0.2301015369425699</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.371157669359036</v>
+        <v>2.371157669359206</v>
       </c>
       <c r="C8">
-        <v>0.369854570870757</v>
+        <v>0.3698545708706718</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1625254853618969</v>
+        <v>0.1625254853619182</v>
       </c>
       <c r="F8">
         <v>1.973637421252803</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1566185952833514</v>
+        <v>0.1566185952833798</v>
       </c>
       <c r="J8">
         <v>0.5918305260360341</v>
@@ -681,7 +681,7 @@
         <v>3.253058272345413</v>
       </c>
       <c r="C9">
-        <v>0.50169278773717</v>
+        <v>0.5016927877371984</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.177415468532498</v>
+        <v>0.1774154685325122</v>
       </c>
       <c r="J9">
-        <v>0.812218618896857</v>
+        <v>0.8122186188968641</v>
       </c>
       <c r="K9">
-        <v>0.3839365780689477</v>
+        <v>0.3839365780689334</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.929811404187092</v>
+        <v>3.929811404187149</v>
       </c>
       <c r="C10">
-        <v>0.6026525645901586</v>
+        <v>0.6026525645897323</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2678072344312952</v>
+        <v>0.267807234431352</v>
       </c>
       <c r="F10">
         <v>3.221178915972331</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1958831832349439</v>
+        <v>0.1958831832349226</v>
       </c>
       <c r="J10">
         <v>0.9812344955650047</v>
       </c>
       <c r="K10">
-        <v>0.4624585369576337</v>
+        <v>0.4624585369576124</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.246525193515197</v>
+        <v>4.246525193515026</v>
       </c>
       <c r="C11">
-        <v>0.6498908463572661</v>
+        <v>0.649890846357323</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -769,19 +769,19 @@
         <v>3.479185295186142</v>
       </c>
       <c r="G11">
-        <v>2.534574671265432</v>
+        <v>2.534574671265418</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2052042403470189</v>
+        <v>0.2052042403470331</v>
       </c>
       <c r="J11">
-        <v>1.060320626232581</v>
+        <v>1.060320626232595</v>
       </c>
       <c r="K11">
-        <v>0.4990882968320989</v>
+        <v>0.4990882968320705</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.367982811067122</v>
+        <v>4.367982811067066</v>
       </c>
       <c r="C12">
-        <v>0.6680087582906822</v>
+        <v>0.6680087582904832</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2971431095049795</v>
+        <v>0.2971431095049368</v>
       </c>
       <c r="F12">
-        <v>3.578466184770321</v>
+        <v>3.578466184770292</v>
       </c>
       <c r="G12">
-        <v>2.600857726998271</v>
+        <v>2.600857726998214</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>1.090649157058351</v>
       </c>
       <c r="K12">
-        <v>0.5131166890320813</v>
+        <v>0.5131166890320529</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.341752502928898</v>
+        <v>4.341752502928841</v>
       </c>
       <c r="C13">
-        <v>0.6640957941546617</v>
+        <v>0.6640957941547185</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2953901406998938</v>
+        <v>0.2953901406999933</v>
       </c>
       <c r="F13">
-        <v>3.557009895036316</v>
+        <v>3.557009895036288</v>
       </c>
       <c r="G13">
-        <v>2.586511303978739</v>
+        <v>2.58651130397871</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2080880560912348</v>
+        <v>0.2080880560912028</v>
       </c>
       <c r="J13">
-        <v>1.084099326599642</v>
+        <v>1.084099326599656</v>
       </c>
       <c r="K13">
-        <v>0.5100879523194308</v>
+        <v>0.5100879523194379</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.256485446159218</v>
+        <v>4.256485446159274</v>
       </c>
       <c r="C14">
-        <v>0.6513765527794817</v>
+        <v>0.6513765527795101</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2896889624248828</v>
+        <v>0.289688962424826</v>
       </c>
       <c r="F14">
         <v>3.487320064765044</v>
       </c>
       <c r="G14">
-        <v>2.539996104407933</v>
+        <v>2.539996104407891</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2055041308897572</v>
+        <v>0.2055041308897998</v>
       </c>
       <c r="J14">
-        <v>1.062807749237265</v>
+        <v>1.062807749237223</v>
       </c>
       <c r="K14">
-        <v>0.5002390979371185</v>
+        <v>0.5002390979371256</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.204463616570251</v>
+        <v>4.204463616569853</v>
       </c>
       <c r="C15">
-        <v>0.6436169118660473</v>
+        <v>0.6436169118657347</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2862085524643234</v>
+        <v>0.2862085524642879</v>
       </c>
       <c r="F15">
         <v>3.44484631193896</v>
       </c>
       <c r="G15">
-        <v>2.511708408311549</v>
+        <v>2.511708408311563</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2039423228540649</v>
+        <v>0.203942322854104</v>
       </c>
       <c r="J15">
-        <v>1.049817636984827</v>
+        <v>1.049817636984784</v>
       </c>
       <c r="K15">
-        <v>0.4942277587993118</v>
+        <v>0.4942277587993189</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2664320479418905</v>
+        <v>0.2664320479418976</v>
       </c>
       <c r="F16">
         <v>3.204525001217377</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1952944008708606</v>
+        <v>0.1952944008708677</v>
       </c>
       <c r="J16">
-        <v>0.9761155547402183</v>
+        <v>0.9761155547402467</v>
       </c>
       <c r="K16">
-        <v>0.4600851969008062</v>
+        <v>0.4600851969008417</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.730682285680246</v>
+        <v>3.730682285680189</v>
       </c>
       <c r="C17">
         <v>0.5729525340791497</v>
@@ -991,25 +991,25 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.254438188202478</v>
+        <v>0.2544381882023998</v>
       </c>
       <c r="F17">
         <v>3.059645938452803</v>
       </c>
       <c r="G17">
-        <v>2.257368625523711</v>
+        <v>2.257368625523696</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1902398512226853</v>
+        <v>0.1902398512226782</v>
       </c>
       <c r="J17">
         <v>0.9315077953372111</v>
       </c>
       <c r="K17">
-        <v>0.4393906625744606</v>
+        <v>0.4393906625744393</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.628755486173986</v>
+        <v>3.628755486173816</v>
       </c>
       <c r="C18">
         <v>0.5577489780853568</v>
@@ -1029,25 +1029,25 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2475860451510457</v>
+        <v>0.2475860451510599</v>
       </c>
       <c r="F18">
-        <v>2.977178463626501</v>
+        <v>2.977178463626473</v>
       </c>
       <c r="G18">
-        <v>2.203451405936249</v>
+        <v>2.203451405936235</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1874176489899604</v>
+        <v>0.1874176489899568</v>
       </c>
       <c r="J18">
-        <v>0.9060533183706951</v>
+        <v>0.9060533183707093</v>
       </c>
       <c r="K18">
-        <v>0.4275715375631606</v>
+        <v>0.4275715375631393</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.594377970639073</v>
+        <v>3.594377970639187</v>
       </c>
       <c r="C19">
-        <v>0.55262087264299</v>
+        <v>0.5526208726432174</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2452735962586345</v>
+        <v>0.2452735962586274</v>
       </c>
       <c r="F19">
         <v>2.94939795267743</v>
       </c>
       <c r="G19">
-        <v>2.185332510418036</v>
+        <v>2.18533251041805</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1864760720056111</v>
+        <v>0.1864760720056289</v>
       </c>
       <c r="J19">
-        <v>0.8974678898692048</v>
+        <v>0.897467889869219</v>
       </c>
       <c r="K19">
-        <v>0.4235834293397431</v>
+        <v>0.4235834293397573</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.749611548323116</v>
+        <v>3.749611548323003</v>
       </c>
       <c r="C20">
-        <v>0.5757759308369543</v>
+        <v>0.5757759308364996</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2557100553222966</v>
+        <v>0.2557100553223464</v>
       </c>
       <c r="F20">
-        <v>3.074977621681768</v>
+        <v>3.074977621681796</v>
       </c>
       <c r="G20">
-        <v>2.267413806799809</v>
+        <v>2.267413806799865</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0.1907689623363993</v>
       </c>
       <c r="J20">
-        <v>0.9362349525866591</v>
+        <v>0.9362349525866733</v>
       </c>
       <c r="K20">
-        <v>0.4415847743858308</v>
+        <v>0.4415847743858237</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.28148686722642</v>
+        <v>4.281486867226477</v>
       </c>
       <c r="C21">
-        <v>0.6551059043688383</v>
+        <v>0.6551059043688099</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1149,19 +1149,19 @@
         <v>3.507744739593676</v>
       </c>
       <c r="G21">
-        <v>2.553615748329179</v>
+        <v>2.553615748329193</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2062586866135021</v>
+        <v>0.2062586866135234</v>
       </c>
       <c r="J21">
         <v>1.069050721396422</v>
       </c>
       <c r="K21">
-        <v>0.5031274388181188</v>
+        <v>0.5031274388180975</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.63813227192162</v>
+        <v>4.638132271921677</v>
       </c>
       <c r="C22">
-        <v>0.7083161767995705</v>
+        <v>0.7083161767993147</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3151736297385455</v>
+        <v>0.3151736297385952</v>
       </c>
       <c r="F22">
-        <v>3.799924534401043</v>
+        <v>3.799924534401072</v>
       </c>
       <c r="G22">
-        <v>2.749614297388618</v>
+        <v>2.749614297388661</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2172988795946758</v>
+        <v>0.2172988795947006</v>
       </c>
       <c r="J22">
-        <v>1.158107413711363</v>
+        <v>1.158107413711392</v>
       </c>
       <c r="K22">
-        <v>0.5442824657748488</v>
+        <v>0.5442824657748062</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,13 +1213,13 @@
         <v>4.446863932702229</v>
       </c>
       <c r="C23">
-        <v>0.6797766896378619</v>
+        <v>0.6797766896380892</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3024122918277286</v>
+        <v>0.3024122918276575</v>
       </c>
       <c r="F23">
         <v>3.643040746083926</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2113141258497748</v>
+        <v>0.21131412584975</v>
       </c>
       <c r="J23">
         <v>1.110346179164267</v>
       </c>
       <c r="K23">
-        <v>0.5222219863247588</v>
+        <v>0.5222219863247659</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,31 +1251,31 @@
         <v>3.741051248925032</v>
       </c>
       <c r="C24">
-        <v>0.5744991221437772</v>
+        <v>0.5744991221440046</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2551349104147533</v>
+        <v>0.2551349104147178</v>
       </c>
       <c r="F24">
         <v>3.068043614101754</v>
       </c>
       <c r="G24">
-        <v>2.262869884673663</v>
+        <v>2.262869884673677</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.190529492080433</v>
+        <v>0.1905294920803868</v>
       </c>
       <c r="J24">
-        <v>0.9340972142082933</v>
+        <v>0.9340972142083075</v>
       </c>
       <c r="K24">
-        <v>0.4405925740810162</v>
+        <v>0.4405925740810304</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.010204653001608</v>
+        <v>3.010204653001836</v>
       </c>
       <c r="C25">
-        <v>0.465434050608593</v>
+        <v>0.4654340506087351</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2058707026895163</v>
+        <v>0.2058707026895235</v>
       </c>
       <c r="F25">
-        <v>2.480116372692976</v>
+        <v>2.480116372692947</v>
       </c>
       <c r="G25">
-        <v>1.882784547071395</v>
+        <v>1.882784547071424</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1712979327505835</v>
+        <v>0.1712979327505693</v>
       </c>
       <c r="J25">
         <v>0.751550511651601</v>
       </c>
       <c r="K25">
-        <v>0.3556687595206185</v>
+        <v>0.3556687595205972</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_line/pl_mw.xlsx
@@ -415,31 +415,31 @@
         <v>2.490489251751626</v>
       </c>
       <c r="C2">
-        <v>0.387727477285182</v>
+        <v>0.3877274772851251</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1706394667622675</v>
+        <v>0.1706394667622959</v>
       </c>
       <c r="F2">
-        <v>2.06759600837853</v>
+        <v>2.067596008378501</v>
       </c>
       <c r="G2">
-        <v>1.622880422168762</v>
+        <v>1.622880422168734</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1591939790513237</v>
+        <v>0.1591939790513131</v>
       </c>
       <c r="J2">
-        <v>0.6216666215764235</v>
+        <v>0.6216666215763951</v>
       </c>
       <c r="K2">
-        <v>0.2949945159705578</v>
+        <v>0.2949945159705649</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.146519402876947</v>
+        <v>2.146519402877061</v>
       </c>
       <c r="C3">
-        <v>0.3361665597824128</v>
+        <v>0.3361665597819865</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1472249464485245</v>
+        <v>0.147224946448528</v>
       </c>
       <c r="F3">
         <v>1.797625756711355</v>
       </c>
       <c r="G3">
-        <v>1.456349348841613</v>
+        <v>1.456349348841599</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1519947727779574</v>
+        <v>0.1519947727779716</v>
       </c>
       <c r="J3">
-        <v>0.5356467992274716</v>
+        <v>0.5356467992274574</v>
       </c>
       <c r="K3">
-        <v>0.2546849261453161</v>
+        <v>0.2546849261453445</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.938470347718464</v>
+        <v>1.938470347718436</v>
       </c>
       <c r="C4">
-        <v>0.3049053138079501</v>
+        <v>0.3049053138078648</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1330224008200389</v>
+        <v>0.1330224008200638</v>
       </c>
       <c r="F4">
-        <v>1.635705203598178</v>
+        <v>1.635705203598164</v>
       </c>
       <c r="G4">
-        <v>1.358027834979566</v>
+        <v>1.358027834979552</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1479911593937118</v>
+        <v>0.1479911593936798</v>
       </c>
       <c r="J4">
-        <v>0.4835867466055959</v>
+        <v>0.4835867466056101</v>
       </c>
       <c r="K4">
         <v>0.230235301291863</v>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.85435884914051</v>
+        <v>1.854358849140596</v>
       </c>
       <c r="C5">
         <v>0.2922467259550956</v>
@@ -535,25 +535,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.127271334684508</v>
+        <v>0.1272713346845045</v>
       </c>
       <c r="F5">
-        <v>1.570567657593216</v>
+        <v>1.57056765759323</v>
       </c>
       <c r="G5">
-        <v>1.318840414467161</v>
+        <v>1.318840414467175</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1464540111371981</v>
+        <v>0.1464540111371768</v>
       </c>
       <c r="J5">
-        <v>0.4625313081160414</v>
+        <v>0.4625313081160769</v>
       </c>
       <c r="K5">
-        <v>0.2203343225918672</v>
+        <v>0.2203343225918744</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>1.840429322701198</v>
       </c>
       <c r="C6">
-        <v>0.2901491173327599</v>
+        <v>0.2901491173328026</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1263183858535299</v>
+        <v>0.1263183858535371</v>
       </c>
       <c r="F6">
-        <v>1.559799423885778</v>
+        <v>1.559799423885792</v>
       </c>
       <c r="G6">
-        <v>1.312383486511166</v>
+        <v>1.31238348651118</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1462041814563797</v>
+        <v>0.1462041814563513</v>
       </c>
       <c r="J6">
         <v>0.4590438533868593</v>
       </c>
       <c r="K6">
-        <v>0.2186936815083556</v>
+        <v>0.2186936815083627</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.937333430127865</v>
+        <v>1.937333430127893</v>
       </c>
       <c r="C7">
-        <v>0.3047342933863035</v>
+        <v>0.3047342933865309</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.132944700843062</v>
+        <v>0.1329447008430655</v>
       </c>
       <c r="F7">
-        <v>1.634823459941515</v>
+        <v>1.634823459941501</v>
       </c>
       <c r="G7">
         <v>1.357495915886574</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1479700598949805</v>
+        <v>0.1479700598950018</v>
       </c>
       <c r="J7">
-        <v>0.4833021785765723</v>
+        <v>0.4833021785766007</v>
       </c>
       <c r="K7">
-        <v>0.2301015369425699</v>
+        <v>0.2301015369425556</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.371157669359206</v>
+        <v>2.371157669359036</v>
       </c>
       <c r="C8">
-        <v>0.3698545708706718</v>
+        <v>0.369854570870757</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1625254853619182</v>
+        <v>0.1625254853618969</v>
       </c>
       <c r="F8">
         <v>1.973637421252803</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1566185952833798</v>
+        <v>0.1566185952833514</v>
       </c>
       <c r="J8">
         <v>0.5918305260360341</v>
@@ -681,7 +681,7 @@
         <v>3.253058272345413</v>
       </c>
       <c r="C9">
-        <v>0.5016927877371984</v>
+        <v>0.50169278773717</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1774154685325122</v>
+        <v>0.177415468532498</v>
       </c>
       <c r="J9">
-        <v>0.8122186188968641</v>
+        <v>0.812218618896857</v>
       </c>
       <c r="K9">
-        <v>0.3839365780689334</v>
+        <v>0.3839365780689477</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.929811404187149</v>
+        <v>3.929811404187092</v>
       </c>
       <c r="C10">
-        <v>0.6026525645897323</v>
+        <v>0.6026525645901586</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.267807234431352</v>
+        <v>0.2678072344312952</v>
       </c>
       <c r="F10">
         <v>3.221178915972331</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1958831832349226</v>
+        <v>0.1958831832349439</v>
       </c>
       <c r="J10">
         <v>0.9812344955650047</v>
       </c>
       <c r="K10">
-        <v>0.4624585369576124</v>
+        <v>0.4624585369576337</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.246525193515026</v>
+        <v>4.246525193515197</v>
       </c>
       <c r="C11">
-        <v>0.649890846357323</v>
+        <v>0.6498908463572661</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -769,19 +769,19 @@
         <v>3.479185295186142</v>
       </c>
       <c r="G11">
-        <v>2.534574671265418</v>
+        <v>2.534574671265432</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2052042403470331</v>
+        <v>0.2052042403470189</v>
       </c>
       <c r="J11">
-        <v>1.060320626232595</v>
+        <v>1.060320626232581</v>
       </c>
       <c r="K11">
-        <v>0.4990882968320705</v>
+        <v>0.4990882968320989</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.367982811067066</v>
+        <v>4.367982811067122</v>
       </c>
       <c r="C12">
-        <v>0.6680087582904832</v>
+        <v>0.6680087582906822</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2971431095049368</v>
+        <v>0.2971431095049795</v>
       </c>
       <c r="F12">
-        <v>3.578466184770292</v>
+        <v>3.578466184770321</v>
       </c>
       <c r="G12">
-        <v>2.600857726998214</v>
+        <v>2.600857726998271</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>1.090649157058351</v>
       </c>
       <c r="K12">
-        <v>0.5131166890320529</v>
+        <v>0.5131166890320813</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.341752502928841</v>
+        <v>4.341752502928898</v>
       </c>
       <c r="C13">
-        <v>0.6640957941547185</v>
+        <v>0.6640957941546617</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2953901406999933</v>
+        <v>0.2953901406998938</v>
       </c>
       <c r="F13">
-        <v>3.557009895036288</v>
+        <v>3.557009895036316</v>
       </c>
       <c r="G13">
-        <v>2.58651130397871</v>
+        <v>2.586511303978739</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2080880560912028</v>
+        <v>0.2080880560912348</v>
       </c>
       <c r="J13">
-        <v>1.084099326599656</v>
+        <v>1.084099326599642</v>
       </c>
       <c r="K13">
-        <v>0.5100879523194379</v>
+        <v>0.5100879523194308</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.256485446159274</v>
+        <v>4.256485446159218</v>
       </c>
       <c r="C14">
-        <v>0.6513765527795101</v>
+        <v>0.6513765527794817</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.289688962424826</v>
+        <v>0.2896889624248828</v>
       </c>
       <c r="F14">
         <v>3.487320064765044</v>
       </c>
       <c r="G14">
-        <v>2.539996104407891</v>
+        <v>2.539996104407933</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2055041308897998</v>
+        <v>0.2055041308897572</v>
       </c>
       <c r="J14">
-        <v>1.062807749237223</v>
+        <v>1.062807749237265</v>
       </c>
       <c r="K14">
-        <v>0.5002390979371256</v>
+        <v>0.5002390979371185</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.204463616569853</v>
+        <v>4.204463616570251</v>
       </c>
       <c r="C15">
-        <v>0.6436169118657347</v>
+        <v>0.6436169118660473</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2862085524642879</v>
+        <v>0.2862085524643234</v>
       </c>
       <c r="F15">
         <v>3.44484631193896</v>
       </c>
       <c r="G15">
-        <v>2.511708408311563</v>
+        <v>2.511708408311549</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.203942322854104</v>
+        <v>0.2039423228540649</v>
       </c>
       <c r="J15">
-        <v>1.049817636984784</v>
+        <v>1.049817636984827</v>
       </c>
       <c r="K15">
-        <v>0.4942277587993189</v>
+        <v>0.4942277587993118</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2664320479418976</v>
+        <v>0.2664320479418905</v>
       </c>
       <c r="F16">
         <v>3.204525001217377</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1952944008708677</v>
+        <v>0.1952944008708606</v>
       </c>
       <c r="J16">
-        <v>0.9761155547402467</v>
+        <v>0.9761155547402183</v>
       </c>
       <c r="K16">
-        <v>0.4600851969008417</v>
+        <v>0.4600851969008062</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.730682285680189</v>
+        <v>3.730682285680246</v>
       </c>
       <c r="C17">
         <v>0.5729525340791497</v>
@@ -991,25 +991,25 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2544381882023998</v>
+        <v>0.254438188202478</v>
       </c>
       <c r="F17">
         <v>3.059645938452803</v>
       </c>
       <c r="G17">
-        <v>2.257368625523696</v>
+        <v>2.257368625523711</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1902398512226782</v>
+        <v>0.1902398512226853</v>
       </c>
       <c r="J17">
         <v>0.9315077953372111</v>
       </c>
       <c r="K17">
-        <v>0.4393906625744393</v>
+        <v>0.4393906625744606</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.628755486173816</v>
+        <v>3.628755486173986</v>
       </c>
       <c r="C18">
         <v>0.5577489780853568</v>
@@ -1029,25 +1029,25 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2475860451510599</v>
+        <v>0.2475860451510457</v>
       </c>
       <c r="F18">
-        <v>2.977178463626473</v>
+        <v>2.977178463626501</v>
       </c>
       <c r="G18">
-        <v>2.203451405936235</v>
+        <v>2.203451405936249</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1874176489899568</v>
+        <v>0.1874176489899604</v>
       </c>
       <c r="J18">
-        <v>0.9060533183707093</v>
+        <v>0.9060533183706951</v>
       </c>
       <c r="K18">
-        <v>0.4275715375631393</v>
+        <v>0.4275715375631606</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.594377970639187</v>
+        <v>3.594377970639073</v>
       </c>
       <c r="C19">
-        <v>0.5526208726432174</v>
+        <v>0.55262087264299</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2452735962586274</v>
+        <v>0.2452735962586345</v>
       </c>
       <c r="F19">
         <v>2.94939795267743</v>
       </c>
       <c r="G19">
-        <v>2.18533251041805</v>
+        <v>2.185332510418036</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1864760720056289</v>
+        <v>0.1864760720056111</v>
       </c>
       <c r="J19">
-        <v>0.897467889869219</v>
+        <v>0.8974678898692048</v>
       </c>
       <c r="K19">
-        <v>0.4235834293397573</v>
+        <v>0.4235834293397431</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.749611548323003</v>
+        <v>3.749611548323116</v>
       </c>
       <c r="C20">
-        <v>0.5757759308364996</v>
+        <v>0.5757759308369543</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2557100553223464</v>
+        <v>0.2557100553222966</v>
       </c>
       <c r="F20">
-        <v>3.074977621681796</v>
+        <v>3.074977621681768</v>
       </c>
       <c r="G20">
-        <v>2.267413806799865</v>
+        <v>2.267413806799809</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0.1907689623363993</v>
       </c>
       <c r="J20">
-        <v>0.9362349525866733</v>
+        <v>0.9362349525866591</v>
       </c>
       <c r="K20">
-        <v>0.4415847743858237</v>
+        <v>0.4415847743858308</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.281486867226477</v>
+        <v>4.28148686722642</v>
       </c>
       <c r="C21">
-        <v>0.6551059043688099</v>
+        <v>0.6551059043688383</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1149,19 +1149,19 @@
         <v>3.507744739593676</v>
       </c>
       <c r="G21">
-        <v>2.553615748329193</v>
+        <v>2.553615748329179</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2062586866135234</v>
+        <v>0.2062586866135021</v>
       </c>
       <c r="J21">
         <v>1.069050721396422</v>
       </c>
       <c r="K21">
-        <v>0.5031274388180975</v>
+        <v>0.5031274388181188</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.638132271921677</v>
+        <v>4.63813227192162</v>
       </c>
       <c r="C22">
-        <v>0.7083161767993147</v>
+        <v>0.7083161767995705</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3151736297385952</v>
+        <v>0.3151736297385455</v>
       </c>
       <c r="F22">
-        <v>3.799924534401072</v>
+        <v>3.799924534401043</v>
       </c>
       <c r="G22">
-        <v>2.749614297388661</v>
+        <v>2.749614297388618</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2172988795947006</v>
+        <v>0.2172988795946758</v>
       </c>
       <c r="J22">
-        <v>1.158107413711392</v>
+        <v>1.158107413711363</v>
       </c>
       <c r="K22">
-        <v>0.5442824657748062</v>
+        <v>0.5442824657748488</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,13 +1213,13 @@
         <v>4.446863932702229</v>
       </c>
       <c r="C23">
-        <v>0.6797766896380892</v>
+        <v>0.6797766896378619</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3024122918276575</v>
+        <v>0.3024122918277286</v>
       </c>
       <c r="F23">
         <v>3.643040746083926</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.21131412584975</v>
+        <v>0.2113141258497748</v>
       </c>
       <c r="J23">
         <v>1.110346179164267</v>
       </c>
       <c r="K23">
-        <v>0.5222219863247659</v>
+        <v>0.5222219863247588</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,31 +1251,31 @@
         <v>3.741051248925032</v>
       </c>
       <c r="C24">
-        <v>0.5744991221440046</v>
+        <v>0.5744991221437772</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2551349104147178</v>
+        <v>0.2551349104147533</v>
       </c>
       <c r="F24">
         <v>3.068043614101754</v>
       </c>
       <c r="G24">
-        <v>2.262869884673677</v>
+        <v>2.262869884673663</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1905294920803868</v>
+        <v>0.190529492080433</v>
       </c>
       <c r="J24">
-        <v>0.9340972142083075</v>
+        <v>0.9340972142082933</v>
       </c>
       <c r="K24">
-        <v>0.4405925740810304</v>
+        <v>0.4405925740810162</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.010204653001836</v>
+        <v>3.010204653001608</v>
       </c>
       <c r="C25">
-        <v>0.4654340506087351</v>
+        <v>0.465434050608593</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2058707026895235</v>
+        <v>0.2058707026895163</v>
       </c>
       <c r="F25">
-        <v>2.480116372692947</v>
+        <v>2.480116372692976</v>
       </c>
       <c r="G25">
-        <v>1.882784547071424</v>
+        <v>1.882784547071395</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1712979327505693</v>
+        <v>0.1712979327505835</v>
       </c>
       <c r="J25">
         <v>0.751550511651601</v>
       </c>
       <c r="K25">
-        <v>0.3556687595205972</v>
+        <v>0.3556687595206185</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.490489251751626</v>
+        <v>2.490430449257474</v>
       </c>
       <c r="C2">
-        <v>0.3877274772851251</v>
+        <v>0.3875668573355711</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1706394667622959</v>
+        <v>0.1710202233303804</v>
       </c>
       <c r="F2">
-        <v>2.067596008378501</v>
+        <v>2.065044571873585</v>
       </c>
       <c r="G2">
-        <v>1.622880422168734</v>
+        <v>0.5171251818618714</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.103628700095399</v>
       </c>
       <c r="I2">
-        <v>0.1591939790513131</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6216666215763951</v>
+        <v>0.1585014739786281</v>
       </c>
       <c r="K2">
-        <v>0.2949945159705649</v>
+        <v>0.6215966877608565</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.2953901594624355</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.146519402877061</v>
+        <v>2.146505986640534</v>
       </c>
       <c r="C3">
-        <v>0.3361665597819865</v>
+        <v>0.3360415469745135</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.147224946448528</v>
+        <v>0.1475572491127934</v>
       </c>
       <c r="F3">
-        <v>1.797625756711355</v>
+        <v>1.795396608216848</v>
       </c>
       <c r="G3">
-        <v>1.456349348841599</v>
+        <v>0.4589051049299542</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.9961354090643226</v>
       </c>
       <c r="I3">
-        <v>0.1519947727779716</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5356467992274574</v>
+        <v>0.1513766827686425</v>
       </c>
       <c r="K3">
-        <v>0.2546849261453445</v>
+        <v>0.5355976429201093</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.2550321944946248</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.938470347718436</v>
+        <v>1.938478451444411</v>
       </c>
       <c r="C4">
-        <v>0.3049053138078648</v>
+        <v>0.3048008584747208</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1330224008200638</v>
+        <v>0.133325092590713</v>
       </c>
       <c r="F4">
-        <v>1.635705203598164</v>
+        <v>1.633669985544202</v>
       </c>
       <c r="G4">
-        <v>1.358027834979552</v>
+        <v>0.424433557637542</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9327778939688898</v>
       </c>
       <c r="I4">
-        <v>0.1479911593936798</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4835867466056101</v>
+        <v>0.1474177862332091</v>
       </c>
       <c r="K4">
-        <v>0.230235301291863</v>
+        <v>0.48354861956809</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.2305527068656161</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.854358849140596</v>
+        <v>1.85437433287143</v>
       </c>
       <c r="C5">
-        <v>0.2922467259550956</v>
+        <v>0.2921503698497077</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1272713346845045</v>
+        <v>0.1275619860922568</v>
       </c>
       <c r="F5">
-        <v>1.57056765759323</v>
+        <v>1.56861066177791</v>
       </c>
       <c r="G5">
-        <v>1.318840414467175</v>
+        <v>0.4106701276564877</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9075525745460595</v>
       </c>
       <c r="I5">
-        <v>0.1464540111371768</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4625313081160769</v>
+        <v>0.1458986572780567</v>
       </c>
       <c r="K5">
-        <v>0.2203343225918744</v>
+        <v>0.4624972990460421</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.2206395192121278</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.840429322701198</v>
+        <v>1.840445953527507</v>
       </c>
       <c r="C6">
-        <v>0.2901491173328026</v>
+        <v>0.2900540906602345</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1263183858535371</v>
+        <v>0.1266070393069967</v>
       </c>
       <c r="F6">
-        <v>1.559799423885792</v>
+        <v>1.557855373245644</v>
       </c>
       <c r="G6">
-        <v>1.31238348651118</v>
+        <v>0.4084008574126017</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.9033977961108803</v>
       </c>
       <c r="I6">
-        <v>0.1462041814563513</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4590438533868593</v>
+        <v>0.1456518085580605</v>
       </c>
       <c r="K6">
-        <v>0.2186936815083627</v>
+        <v>0.4590105069281023</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2189968484550562</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.937333430127893</v>
+        <v>1.937341638754106</v>
       </c>
       <c r="C7">
-        <v>0.3047342933865309</v>
+        <v>0.3046299483463031</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1329447008430655</v>
+        <v>0.1332472301380143</v>
       </c>
       <c r="F7">
-        <v>1.634823459941501</v>
+        <v>1.632789299849634</v>
       </c>
       <c r="G7">
-        <v>1.357495915886574</v>
+        <v>0.4242468356303277</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9324353838407831</v>
       </c>
       <c r="I7">
-        <v>0.1479700598950018</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4833021785766007</v>
+        <v>0.1473969305196405</v>
       </c>
       <c r="K7">
-        <v>0.2301015369425556</v>
+        <v>0.4832641085282816</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.2304187780221341</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.371157669359036</v>
+        <v>2.371115965878403</v>
       </c>
       <c r="C8">
-        <v>0.369854570870757</v>
+        <v>0.3697065312802295</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1625254853618969</v>
+        <v>0.1628895004567141</v>
       </c>
       <c r="F8">
-        <v>1.973637421252803</v>
+        <v>1.971198051388612</v>
       </c>
       <c r="G8">
-        <v>1.564576525326316</v>
+        <v>0.496762906932986</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.065971282322749</v>
       </c>
       <c r="I8">
-        <v>0.1566185952833514</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5918305260360341</v>
+        <v>0.1559519773496589</v>
       </c>
       <c r="K8">
-        <v>0.2810250693533618</v>
+        <v>0.5917681521612792</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.2814040669646616</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.253058272345413</v>
+        <v>3.252857479261934</v>
       </c>
       <c r="C9">
-        <v>0.50169278773717</v>
+        <v>0.5014460886130507</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2222762249683115</v>
+        <v>0.2227623538899621</v>
       </c>
       <c r="F9">
-        <v>2.67454393012153</v>
+        <v>2.671268692236623</v>
       </c>
       <c r="G9">
-        <v>2.007302480037126</v>
+        <v>0.6509411142877752</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.352404349994231</v>
       </c>
       <c r="I9">
-        <v>0.177415468532498</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.812218618896857</v>
+        <v>0.1765556319452379</v>
       </c>
       <c r="K9">
-        <v>0.3839365780689477</v>
+        <v>0.8120918322056383</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.3844353371534197</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.929811404187092</v>
+        <v>3.929438333342318</v>
       </c>
       <c r="C10">
-        <v>0.6026525645901586</v>
+        <v>0.6023211477168786</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2678072344312952</v>
+        <v>0.2683846575725681</v>
       </c>
       <c r="F10">
-        <v>3.221178915972331</v>
+        <v>3.217248103924874</v>
       </c>
       <c r="G10">
-        <v>2.363533478484243</v>
+        <v>0.7744367546715267</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.58349240911302</v>
       </c>
       <c r="I10">
-        <v>0.1958831832349439</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9812344955650047</v>
+        <v>0.1948718467188719</v>
       </c>
       <c r="K10">
-        <v>0.4624585369576337</v>
+        <v>0.9810451189206617</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.4630442699896662</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.246525193515197</v>
+        <v>4.246056597920244</v>
       </c>
       <c r="C11">
-        <v>0.6498908463572661</v>
+        <v>0.6495170227576921</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2890227157125196</v>
+        <v>0.2896421633633892</v>
       </c>
       <c r="F11">
-        <v>3.479185295186142</v>
+        <v>3.474942686022644</v>
       </c>
       <c r="G11">
-        <v>2.534574671265432</v>
+        <v>0.8336028744881361</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.694588491606893</v>
       </c>
       <c r="I11">
-        <v>0.2052042403470189</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.060320626232581</v>
+        <v>0.2041209469844247</v>
       </c>
       <c r="K11">
-        <v>0.4990882968320989</v>
+        <v>1.060098034697617</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.4997132896205727</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.367982811067122</v>
+        <v>4.367475037162876</v>
       </c>
       <c r="C12">
-        <v>0.6680087582906822</v>
+        <v>0.667618194189572</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2971431095049795</v>
+        <v>0.2977785547681364</v>
       </c>
       <c r="F12">
-        <v>3.578466184770321</v>
+        <v>3.57410308229862</v>
       </c>
       <c r="G12">
-        <v>2.600857726998271</v>
+        <v>0.8565121133062519</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.73766213089786</v>
       </c>
       <c r="I12">
-        <v>0.2088889104446565</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1.090649157058351</v>
+        <v>0.2077778335305176</v>
       </c>
       <c r="K12">
-        <v>0.5131166890320813</v>
+        <v>1.090413156455512</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.513756492624232</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.341752502928898</v>
+        <v>4.341253310210675</v>
       </c>
       <c r="C13">
-        <v>0.6640957941546617</v>
+        <v>0.6637088680262764</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2953901406998938</v>
+        <v>0.2960221366539173</v>
       </c>
       <c r="F13">
-        <v>3.557009895036316</v>
+        <v>3.552672859195354</v>
       </c>
       <c r="G13">
-        <v>2.586511303978739</v>
+        <v>0.85155445938166</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.728338257872352</v>
       </c>
       <c r="I13">
-        <v>0.2080880560912348</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.084099326599642</v>
+        <v>0.2069829884175611</v>
       </c>
       <c r="K13">
-        <v>0.5100879523194308</v>
+        <v>1.083866253561681</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.5107245688757232</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.256485446159218</v>
+        <v>4.256013691051692</v>
       </c>
       <c r="C14">
-        <v>0.6513765527794817</v>
+        <v>0.6510013664071437</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2896889624248828</v>
+        <v>0.2903097244537349</v>
       </c>
       <c r="F14">
-        <v>3.487320064765044</v>
+        <v>3.483067594123128</v>
       </c>
       <c r="G14">
-        <v>2.539996104407933</v>
+        <v>0.8354770563927474</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.698111156997115</v>
       </c>
       <c r="I14">
-        <v>0.2055041308897572</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.062807749237265</v>
+        <v>0.2044185631078612</v>
       </c>
       <c r="K14">
-        <v>0.5002390979371185</v>
+        <v>1.062584072155744</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.5008653104283169</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.204463616570251</v>
+        <v>4.204008258560748</v>
       </c>
       <c r="C15">
-        <v>0.6436169118660473</v>
+        <v>0.6432488234604818</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2862085524643234</v>
+        <v>0.2868224446957157</v>
       </c>
       <c r="F15">
-        <v>3.44484631193896</v>
+        <v>3.440645308897103</v>
       </c>
       <c r="G15">
-        <v>2.511708408311549</v>
+        <v>0.8256972660914101</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.679731602015437</v>
       </c>
       <c r="I15">
-        <v>0.2039423228540649</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1.049817636984827</v>
+        <v>0.2028686264189545</v>
       </c>
       <c r="K15">
-        <v>0.4942277587993118</v>
+        <v>1.049599601985307</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.4948475907657155</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.909312279964752</v>
+        <v>3.90894506311389</v>
       </c>
       <c r="C16">
-        <v>0.5995951989472985</v>
+        <v>0.5992664654141322</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2664320479418905</v>
+        <v>0.2670067357085273</v>
       </c>
       <c r="F16">
-        <v>3.204525001217377</v>
+        <v>3.200614254513795</v>
       </c>
       <c r="G16">
-        <v>2.352554578794582</v>
+        <v>0.7706363662300078</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.57636413460213</v>
       </c>
       <c r="I16">
-        <v>0.1952944008708606</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9761155547402183</v>
+        <v>0.1942876977709211</v>
       </c>
       <c r="K16">
-        <v>0.4600851969008062</v>
+        <v>0.975928241239572</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.4606683571398236</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.730682285680246</v>
+        <v>3.730364396728078</v>
       </c>
       <c r="C17">
-        <v>0.5729525340791497</v>
+        <v>0.5726468706716901</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.254438188202478</v>
+        <v>0.2549889608175278</v>
       </c>
       <c r="F17">
-        <v>3.059645938452803</v>
+        <v>3.055909470717012</v>
       </c>
       <c r="G17">
-        <v>2.257368625523711</v>
+        <v>0.7376732704531292</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.51457812303498</v>
       </c>
       <c r="I17">
-        <v>0.1902398512226853</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9315077953372111</v>
+        <v>0.189273403664064</v>
       </c>
       <c r="K17">
-        <v>0.4393906625744606</v>
+        <v>0.9313380165927043</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.4399512404734125</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.628755486173986</v>
+        <v>3.628464392546903</v>
       </c>
       <c r="C18">
-        <v>0.5577489780853568</v>
+        <v>0.5574562287196443</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2475860451510457</v>
+        <v>0.2481231081306348</v>
       </c>
       <c r="F18">
-        <v>2.977178463626501</v>
+        <v>2.973540991905395</v>
       </c>
       <c r="G18">
-        <v>2.203451405936249</v>
+        <v>0.7189898895854157</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.479592822172606</v>
       </c>
       <c r="I18">
-        <v>0.1874176489899604</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9060533183706951</v>
+        <v>0.1864740761382429</v>
       </c>
       <c r="K18">
-        <v>0.4275715375631606</v>
+        <v>0.9058931892760569</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.4281190989316528</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.594377970639073</v>
+        <v>3.594095693324221</v>
       </c>
       <c r="C19">
-        <v>0.55262087264299</v>
+        <v>0.5523324381756538</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2452735962586345</v>
+        <v>0.2458060248647982</v>
       </c>
       <c r="F19">
-        <v>2.94939795267743</v>
+        <v>2.945793798451376</v>
       </c>
       <c r="G19">
-        <v>2.185332510418036</v>
+        <v>0.7127093372467641</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.467838187563444</v>
       </c>
       <c r="I19">
-        <v>0.1864760720056111</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8974678898692048</v>
+        <v>0.1855401988888197</v>
       </c>
       <c r="K19">
-        <v>0.4235834293397431</v>
+        <v>0.8973109571985844</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.4241265790647546</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.749611548323116</v>
+        <v>3.749288575079959</v>
       </c>
       <c r="C20">
-        <v>0.5757759308369543</v>
+        <v>0.5754678491793754</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2557100553222966</v>
+        <v>0.2562633689227383</v>
       </c>
       <c r="F20">
-        <v>3.074977621681768</v>
+        <v>3.071222733592691</v>
       </c>
       <c r="G20">
-        <v>2.267413806799809</v>
+        <v>0.7411531638173443</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.521097196153505</v>
       </c>
       <c r="I20">
-        <v>0.1907689623363993</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9362349525866591</v>
+        <v>0.1897982590590495</v>
       </c>
       <c r="K20">
-        <v>0.4415847743858308</v>
+        <v>0.9360633533373601</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.4421477591607683</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.28148686722642</v>
+        <v>4.281007139433314</v>
       </c>
       <c r="C21">
-        <v>0.6551059043688383</v>
+        <v>0.6547272893810714</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.291361064750177</v>
+        <v>0.2919851240755733</v>
       </c>
       <c r="F21">
-        <v>3.507744739593676</v>
+        <v>3.50346750006301</v>
       </c>
       <c r="G21">
-        <v>2.553615748329179</v>
+        <v>0.8401850414955732</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.70696107848741</v>
       </c>
       <c r="I21">
-        <v>0.2062586866135021</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1.069050721396422</v>
+        <v>0.2051674066344518</v>
       </c>
       <c r="K21">
-        <v>0.5031274388181188</v>
+        <v>1.068824308399044</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.5037567088758053</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.63813227192162</v>
+        <v>4.637532243457656</v>
       </c>
       <c r="C22">
-        <v>0.7083161767995705</v>
+        <v>0.7078874113190921</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3151736297385455</v>
+        <v>0.3158444204134483</v>
       </c>
       <c r="F22">
-        <v>3.799924534401043</v>
+        <v>3.795291497774457</v>
       </c>
       <c r="G22">
-        <v>2.749614297388618</v>
+        <v>0.9078907470434245</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.834369443581537</v>
       </c>
       <c r="I22">
-        <v>0.2172988795946758</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1.158107413711363</v>
+        <v>0.2161256175166777</v>
       </c>
       <c r="K22">
-        <v>0.5442824657748488</v>
+        <v>1.157840238296572</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.5449547212610852</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.446863932702229</v>
+        <v>4.446329952983717</v>
       </c>
       <c r="C23">
-        <v>0.6797766896378619</v>
+        <v>0.6793751096768119</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3024122918277286</v>
+        <v>0.3030580914822849</v>
       </c>
       <c r="F23">
-        <v>3.643040746083926</v>
+        <v>3.638599104549456</v>
       </c>
       <c r="G23">
-        <v>2.644105509968469</v>
+        <v>0.8714543184239574</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.765772319029054</v>
       </c>
       <c r="I23">
-        <v>0.2113141258497748</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1.110346179164267</v>
+        <v>0.2101849473635191</v>
       </c>
       <c r="K23">
-        <v>0.5222219863247588</v>
+        <v>1.110101269031048</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.5228713357266201</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.741051248925032</v>
+        <v>3.740730579122101</v>
       </c>
       <c r="C24">
-        <v>0.5744991221437772</v>
+        <v>0.5741921348565313</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2551349104147533</v>
+        <v>0.2556870751136771</v>
       </c>
       <c r="F24">
-        <v>3.068043614101754</v>
+        <v>3.064297057555308</v>
       </c>
       <c r="G24">
-        <v>2.262869884673663</v>
+        <v>0.7395790761938912</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.518148263421793</v>
       </c>
       <c r="I24">
-        <v>0.190529492080433</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9340972142082933</v>
+        <v>0.1895607136433384</v>
       </c>
       <c r="K24">
-        <v>0.4405925740810162</v>
+        <v>0.933926439341775</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.4411544708113198</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.010204653001608</v>
+        <v>3.010055128977399</v>
       </c>
       <c r="C25">
-        <v>0.465434050608593</v>
+        <v>0.4652158338380445</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2058707026895163</v>
+        <v>0.2063235680879103</v>
       </c>
       <c r="F25">
-        <v>2.480116372692976</v>
+        <v>2.477073199097106</v>
       </c>
       <c r="G25">
-        <v>1.882784547071395</v>
+        <v>0.6076700092564096</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.271743273956233</v>
       </c>
       <c r="I25">
-        <v>0.1712979327505835</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.751550511651601</v>
+        <v>0.1704917563058039</v>
       </c>
       <c r="K25">
-        <v>0.3556687595206185</v>
+        <v>0.7514434136182047</v>
       </c>
       <c r="L25">
+        <v>0.3561352775587778</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.490430449257474</v>
+        <v>4.271286433844182</v>
       </c>
       <c r="C2">
-        <v>0.3875668573355711</v>
+        <v>0.8833546974522335</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1710202233303804</v>
+        <v>0.04645864033878766</v>
       </c>
       <c r="F2">
-        <v>2.065044571873585</v>
+        <v>2.619226348534156</v>
       </c>
       <c r="G2">
-        <v>0.5171251818618714</v>
+        <v>0.0008227525702711237</v>
       </c>
       <c r="H2">
-        <v>1.103628700095399</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1585014739786281</v>
+        <v>0.1065752072567854</v>
       </c>
       <c r="K2">
-        <v>0.6215966877608565</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2953901594624355</v>
+        <v>0.09442898763376917</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.5957890442390337</v>
+      </c>
+      <c r="N2">
+        <v>1.718472353694153</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.146505986640534</v>
+        <v>3.742690008332374</v>
       </c>
       <c r="C3">
-        <v>0.3360415469745135</v>
+        <v>0.7582574929146801</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1475572491127934</v>
+        <v>0.04082743858647042</v>
       </c>
       <c r="F3">
-        <v>1.795396608216848</v>
+        <v>2.435454480088296</v>
       </c>
       <c r="G3">
-        <v>0.4589051049299542</v>
+        <v>0.0008332240231687083</v>
       </c>
       <c r="H3">
-        <v>0.9961354090643226</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1513766827686425</v>
+        <v>0.1088371590976145</v>
       </c>
       <c r="K3">
-        <v>0.5355976429201093</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2550321944946248</v>
+        <v>0.08737617555733124</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.5258691974645728</v>
+      </c>
+      <c r="N3">
+        <v>1.744023277418222</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.938478451444411</v>
+        <v>3.425795160043094</v>
       </c>
       <c r="C4">
-        <v>0.3048008584747208</v>
+        <v>0.6830822586280192</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.133325092590713</v>
+        <v>0.03746118031116197</v>
       </c>
       <c r="F4">
-        <v>1.633669985544202</v>
+        <v>2.327617587208024</v>
       </c>
       <c r="G4">
-        <v>0.424433557637542</v>
+        <v>0.000839811599829503</v>
       </c>
       <c r="H4">
-        <v>0.9327778939688898</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1474177862332091</v>
+        <v>0.110396797677403</v>
       </c>
       <c r="K4">
-        <v>0.48354861956809</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2305527068656161</v>
+        <v>0.08314522904638721</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4839333175043805</v>
+      </c>
+      <c r="N4">
+        <v>1.761981234588944</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.85437433287143</v>
+        <v>3.298352003836044</v>
       </c>
       <c r="C5">
-        <v>0.2921503698497077</v>
+        <v>0.6527969617245901</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1275619860922568</v>
+        <v>0.03610808762220152</v>
       </c>
       <c r="F5">
-        <v>1.56861066177791</v>
+        <v>2.284817801231867</v>
       </c>
       <c r="G5">
-        <v>0.4106701276564877</v>
+        <v>0.0008425382504974647</v>
       </c>
       <c r="H5">
-        <v>0.9075525745460595</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1458986572780567</v>
+        <v>0.1110723284061095</v>
       </c>
       <c r="K5">
-        <v>0.4624972990460421</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2206395192121278</v>
+        <v>0.08144455304218212</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.4670660357373961</v>
+      </c>
+      <c r="N5">
+        <v>1.769835967234656</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.840445953527507</v>
+        <v>3.277286065348676</v>
       </c>
       <c r="C6">
-        <v>0.2900540906602345</v>
+        <v>0.6477875067444359</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1266070393069967</v>
+        <v>0.03588441974306278</v>
       </c>
       <c r="F6">
-        <v>1.557855373245644</v>
+        <v>2.277776960035425</v>
       </c>
       <c r="G6">
-        <v>0.4084008574126017</v>
+        <v>0.0008429936218438662</v>
       </c>
       <c r="H6">
-        <v>0.9033977961108803</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1456518085580605</v>
+        <v>0.1111868326984755</v>
       </c>
       <c r="K6">
-        <v>0.4590105069281023</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2189968484550562</v>
+        <v>0.08116353181075908</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.4642778612559226</v>
+      </c>
+      <c r="N6">
+        <v>1.771171722533722</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.937341638754106</v>
+        <v>3.424069850711021</v>
       </c>
       <c r="C7">
-        <v>0.3046299483463031</v>
+        <v>0.6826724840016141</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1332472301380143</v>
+        <v>0.03744286169570366</v>
       </c>
       <c r="F7">
-        <v>1.632789299849634</v>
+        <v>2.327035881284701</v>
       </c>
       <c r="G7">
-        <v>0.4242468356303277</v>
+        <v>0.0008398481985932532</v>
       </c>
       <c r="H7">
-        <v>0.9324353838407831</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1473969305196405</v>
+        <v>0.1104057500002611</v>
       </c>
       <c r="K7">
-        <v>0.4832641085282816</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2304187780221341</v>
+        <v>0.08312220006026649</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.4837049764132857</v>
+      </c>
+      <c r="N7">
+        <v>1.762085035698874</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.371115965878403</v>
+        <v>4.087287693371138</v>
       </c>
       <c r="C8">
-        <v>0.3697065312802295</v>
+        <v>0.8398426020930856</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1628895004567141</v>
+        <v>0.0444953199218947</v>
       </c>
       <c r="F8">
-        <v>1.971198051388612</v>
+        <v>2.554752993518733</v>
       </c>
       <c r="G8">
-        <v>0.496762906932986</v>
+        <v>0.0008263318444476175</v>
       </c>
       <c r="H8">
-        <v>1.065971282322749</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1559519773496589</v>
+        <v>0.1073177769682516</v>
       </c>
       <c r="K8">
-        <v>0.5917681521612792</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2814040669646616</v>
+        <v>0.09197554266222596</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.5714562283909146</v>
+      </c>
+      <c r="N8">
+        <v>1.726789769754873</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.252857479261934</v>
+        <v>5.460546582919676</v>
       </c>
       <c r="C9">
-        <v>0.5014460886130507</v>
+        <v>1.16418750744657</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2227623538899621</v>
+        <v>0.05927133491748648</v>
       </c>
       <c r="F9">
-        <v>2.671268692236623</v>
+        <v>3.046670794771444</v>
       </c>
       <c r="G9">
-        <v>0.6509411142877752</v>
+        <v>0.0008009585346571288</v>
       </c>
       <c r="H9">
-        <v>1.352404349994231</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1765556319452379</v>
+        <v>0.1027720997681811</v>
       </c>
       <c r="K9">
-        <v>0.8120918322056383</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3844353371534197</v>
+        <v>0.1102055543644127</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.7528692419040723</v>
+      </c>
+      <c r="N9">
+        <v>1.677304404155365</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.929438333342318</v>
+        <v>6.532734876667689</v>
       </c>
       <c r="C10">
-        <v>0.6023211477168786</v>
+        <v>1.41739970964079</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2683846575725681</v>
+        <v>0.07106611463739654</v>
       </c>
       <c r="F10">
-        <v>3.217248103924874</v>
+        <v>3.444774722894294</v>
       </c>
       <c r="G10">
-        <v>0.7744367546715267</v>
+        <v>0.0007828135398227908</v>
       </c>
       <c r="H10">
-        <v>1.58349240911302</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1948718467188719</v>
+        <v>0.1006063562113972</v>
       </c>
       <c r="K10">
-        <v>0.9810451189206617</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4630442699896662</v>
+        <v>0.1242543719841933</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.8941295135839269</v>
+      </c>
+      <c r="N10">
+        <v>1.655713974643987</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.246056597920244</v>
+        <v>7.039266118181445</v>
       </c>
       <c r="C11">
-        <v>0.6495170227576921</v>
+        <v>1.537194248607591</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2896421633633892</v>
+        <v>0.0767352991091883</v>
       </c>
       <c r="F11">
-        <v>3.474942686022644</v>
+        <v>3.636234274621444</v>
       </c>
       <c r="G11">
-        <v>0.8336028744881361</v>
+        <v>0.0007746157446899329</v>
       </c>
       <c r="H11">
-        <v>1.694588491606893</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2041209469844247</v>
+        <v>0.09994624765611348</v>
       </c>
       <c r="K11">
-        <v>1.060098034697617</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4997132896205727</v>
+        <v>0.1308206361979742</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.9607287181344617</v>
+      </c>
+      <c r="N11">
+        <v>1.649828779527411</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.367475037162876</v>
+        <v>7.234275747745244</v>
       </c>
       <c r="C12">
-        <v>0.667618194189572</v>
+        <v>1.583356050672307</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2977785547681364</v>
+        <v>0.07893592346797718</v>
       </c>
       <c r="F12">
-        <v>3.57410308229862</v>
+        <v>3.71045977557614</v>
       </c>
       <c r="G12">
-        <v>0.8565121133062519</v>
+        <v>0.0007715145448577285</v>
       </c>
       <c r="H12">
-        <v>1.73766213089786</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2077778335305176</v>
+        <v>0.09975027202334985</v>
       </c>
       <c r="K12">
-        <v>1.090413156455512</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.513756492624232</v>
+        <v>0.1333355007116239</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.9863439969853331</v>
+      </c>
+      <c r="N12">
+        <v>1.648239238914016</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.341253310210675</v>
+        <v>7.192125993228672</v>
       </c>
       <c r="C13">
-        <v>0.6637088680262764</v>
+        <v>1.573376374113309</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2960221366539173</v>
+        <v>0.07845940362613746</v>
       </c>
       <c r="F13">
-        <v>3.552672859195354</v>
+        <v>3.694393195251791</v>
       </c>
       <c r="G13">
-        <v>0.85155445938166</v>
+        <v>0.0007721823925910207</v>
       </c>
       <c r="H13">
-        <v>1.728338257872352</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2069829884175611</v>
+        <v>0.09978994746186842</v>
       </c>
       <c r="K13">
-        <v>1.083866253561681</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5107245688757232</v>
+        <v>0.132792563289577</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.9808086512109924</v>
+      </c>
+      <c r="N13">
+        <v>1.648551863250262</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.256013691051692</v>
+        <v>7.055242479762171</v>
       </c>
       <c r="C14">
-        <v>0.6510013664071437</v>
+        <v>1.540975152183705</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2903097244537349</v>
+        <v>0.07691520213513314</v>
       </c>
       <c r="F14">
-        <v>3.483067594123128</v>
+        <v>3.642304830967618</v>
       </c>
       <c r="G14">
-        <v>0.8354770563927474</v>
+        <v>0.0007743605759111155</v>
       </c>
       <c r="H14">
-        <v>1.698111156997115</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2044185631078612</v>
+        <v>0.09992899616437967</v>
       </c>
       <c r="K14">
-        <v>1.062584072155744</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5008653104283169</v>
+        <v>0.1310269475706463</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.9628278018845577</v>
+      </c>
+      <c r="N14">
+        <v>1.649684739254425</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.204008258560748</v>
+        <v>6.971829798403519</v>
       </c>
       <c r="C15">
-        <v>0.6432488234604818</v>
+        <v>1.521236831251997</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2868224446957157</v>
+        <v>0.07597667732667901</v>
       </c>
       <c r="F15">
-        <v>3.440645308897103</v>
+        <v>3.610631272468225</v>
       </c>
       <c r="G15">
-        <v>0.8256972660914101</v>
+        <v>0.0007756950218577619</v>
       </c>
       <c r="H15">
-        <v>1.679731602015437</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2028686264189545</v>
+        <v>0.1000214370904295</v>
       </c>
       <c r="K15">
-        <v>1.049599601985307</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4948475907657155</v>
+        <v>0.1299492515644971</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.9518674460951715</v>
+      </c>
+      <c r="N15">
+        <v>1.65046424876239</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.90894506311389</v>
+        <v>6.500050552460607</v>
       </c>
       <c r="C16">
-        <v>0.5992664654141322</v>
+        <v>1.409674664076874</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2670067357085273</v>
+        <v>0.07070255814799253</v>
       </c>
       <c r="F16">
-        <v>3.200614254513795</v>
+        <v>3.432490082721301</v>
       </c>
       <c r="G16">
-        <v>0.7706363662300078</v>
+        <v>0.0007833500115660464</v>
       </c>
       <c r="H16">
-        <v>1.57636413460213</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1942876977709211</v>
+        <v>0.10065662709858</v>
       </c>
       <c r="K16">
-        <v>0.975928241239572</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4606683571398236</v>
+        <v>0.1238290390464698</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8898290302247318</v>
+      </c>
+      <c r="N16">
+        <v>1.656183778196464</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.730364396728078</v>
+        <v>6.215770320299214</v>
       </c>
       <c r="C17">
-        <v>0.5726468706716901</v>
+        <v>1.342504688762801</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2549889608175278</v>
+        <v>0.06755150851169844</v>
       </c>
       <c r="F17">
-        <v>3.055909470717012</v>
+        <v>3.326015519697762</v>
       </c>
       <c r="G17">
-        <v>0.7376732704531292</v>
+        <v>0.0007880572419252757</v>
       </c>
       <c r="H17">
-        <v>1.51457812303498</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.189273403664064</v>
+        <v>0.1011343123858168</v>
       </c>
       <c r="K17">
-        <v>0.9313380165927043</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4399512404734125</v>
+        <v>0.1201215080530105</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8524089946019444</v>
+      </c>
+      <c r="N17">
+        <v>1.660749168858715</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.628464392546903</v>
+        <v>6.053994401112845</v>
       </c>
       <c r="C18">
-        <v>0.5574562287196443</v>
+        <v>1.304294624029467</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2481231081306348</v>
+        <v>0.06576698686194149</v>
       </c>
       <c r="F18">
-        <v>2.973540991905395</v>
+        <v>3.265733387493867</v>
       </c>
       <c r="G18">
-        <v>0.7189898895854157</v>
+        <v>0.0007907703699214881</v>
       </c>
       <c r="H18">
-        <v>1.479592822172606</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1864740761382429</v>
+        <v>0.1014391602160387</v>
       </c>
       <c r="K18">
-        <v>0.9058931892760569</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4281190989316528</v>
+        <v>0.1180053303185744</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.831102126165348</v>
+      </c>
+      <c r="N18">
+        <v>1.663740586228954</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.594095693324221</v>
+        <v>5.999503886227672</v>
       </c>
       <c r="C19">
-        <v>0.5523324381756538</v>
+        <v>1.291426446757896</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2458060248647982</v>
+        <v>0.06516728610817424</v>
       </c>
       <c r="F19">
-        <v>2.945793798451376</v>
+        <v>3.245481066583579</v>
       </c>
       <c r="G19">
-        <v>0.7127093372467641</v>
+        <v>0.0007916900994255414</v>
       </c>
       <c r="H19">
-        <v>1.467838187563444</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1855401988888197</v>
+        <v>0.101547345715133</v>
       </c>
       <c r="K19">
-        <v>0.8973109571985844</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4241265790647546</v>
+        <v>0.1172915390485088</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8239234480101558</v>
+      </c>
+      <c r="N19">
+        <v>1.664814166094217</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.749288575079959</v>
+        <v>6.24584956953106</v>
       </c>
       <c r="C20">
-        <v>0.5754678491793754</v>
+        <v>1.349610217515476</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2562633689227383</v>
+        <v>0.06788398995500344</v>
       </c>
       <c r="F20">
-        <v>3.071222733592691</v>
+        <v>3.337249058291974</v>
       </c>
       <c r="G20">
-        <v>0.7411531638173443</v>
+        <v>0.0007875555978628172</v>
       </c>
       <c r="H20">
-        <v>1.521097196153505</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1897982590590495</v>
+        <v>0.1010802988652095</v>
       </c>
       <c r="K20">
-        <v>0.9360633533373601</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4421477591607683</v>
+        <v>0.1205144731126637</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8563696502635523</v>
+      </c>
+      <c r="N20">
+        <v>1.660224852159246</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.281007139433314</v>
+        <v>7.095357370917668</v>
       </c>
       <c r="C21">
-        <v>0.6547272893810714</v>
+        <v>1.550469318778539</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2919851240755733</v>
+        <v>0.07736722038823629</v>
       </c>
       <c r="F21">
-        <v>3.50346750006301</v>
+        <v>3.657555613304652</v>
       </c>
       <c r="G21">
-        <v>0.8401850414955732</v>
+        <v>0.000773720749458542</v>
       </c>
       <c r="H21">
-        <v>1.70696107848741</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2051674066344518</v>
+        <v>0.09988662431914719</v>
       </c>
       <c r="K21">
-        <v>1.068824308399044</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5037567088758053</v>
+        <v>0.1315447546562751</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9680979587015912</v>
+      </c>
+      <c r="N21">
+        <v>1.649334001912678</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.637532243457656</v>
+        <v>7.669485927879975</v>
       </c>
       <c r="C22">
-        <v>0.7078874113190921</v>
+        <v>1.686475236055571</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3158444204134483</v>
+        <v>0.08388496006751467</v>
       </c>
       <c r="F22">
-        <v>3.795291497774457</v>
+        <v>3.877078998779609</v>
       </c>
       <c r="G22">
-        <v>0.9078907470434245</v>
+        <v>0.0007646941880172786</v>
       </c>
       <c r="H22">
-        <v>1.834369443581537</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2161256175166777</v>
+        <v>0.0994256088984784</v>
       </c>
       <c r="K22">
-        <v>1.157840238296572</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5449547212610852</v>
+        <v>0.1389208018282773</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.043459254405469</v>
+      </c>
+      <c r="N22">
+        <v>1.645983960537762</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.446329952983717</v>
+        <v>7.361145778673404</v>
       </c>
       <c r="C23">
-        <v>0.6793751096768119</v>
+        <v>1.61340224579078</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3030580914822849</v>
+        <v>0.08037318024750206</v>
       </c>
       <c r="F23">
-        <v>3.638599104549456</v>
+        <v>3.758896168182531</v>
       </c>
       <c r="G23">
-        <v>0.8714543184239574</v>
+        <v>0.0007695122954669166</v>
       </c>
       <c r="H23">
-        <v>1.765772319029054</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2101849473635191</v>
+        <v>0.09963969686150875</v>
       </c>
       <c r="K23">
-        <v>1.110101269031048</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5228713357266201</v>
+        <v>0.1349676145199652</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.003001297073396</v>
+      </c>
+      <c r="N23">
+        <v>1.647399869113826</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.740730579122101</v>
+        <v>6.23224560503246</v>
       </c>
       <c r="C24">
-        <v>0.5741921348565313</v>
+        <v>1.346396550663258</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2556870751136771</v>
+        <v>0.06773359155326375</v>
       </c>
       <c r="F24">
-        <v>3.064297057555308</v>
+        <v>3.332167491264443</v>
       </c>
       <c r="G24">
-        <v>0.7395790761938912</v>
+        <v>0.0007877823693723767</v>
       </c>
       <c r="H24">
-        <v>1.518148263421793</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1895607136433384</v>
+        <v>0.1011046247790972</v>
       </c>
       <c r="K24">
-        <v>0.933926439341775</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4411544708113198</v>
+        <v>0.1203367660866661</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8545783992750984</v>
+      </c>
+      <c r="N24">
+        <v>1.660460758885577</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.010055128977399</v>
+        <v>5.079456236347369</v>
       </c>
       <c r="C25">
-        <v>0.4652158338380445</v>
+        <v>1.074234079460382</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2063235680879103</v>
+        <v>0.055138723885932</v>
       </c>
       <c r="F25">
-        <v>2.477073199097106</v>
+        <v>2.907873916400462</v>
       </c>
       <c r="G25">
-        <v>0.6076700092564096</v>
+        <v>0.0008077199708840915</v>
       </c>
       <c r="H25">
-        <v>1.271743273956233</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1704917563058039</v>
+        <v>0.103816449567173</v>
       </c>
       <c r="K25">
-        <v>0.7514434136182047</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3561352775587778</v>
+        <v>0.105168798683728</v>
       </c>
       <c r="M25">
+        <v>0.7025746939114512</v>
+      </c>
+      <c r="N25">
+        <v>1.688318871511001</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.271286433844182</v>
+        <v>2.491853967318889</v>
       </c>
       <c r="C2">
-        <v>0.8833546974522335</v>
+        <v>0.6027770643286487</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04645864033878766</v>
+        <v>0.1974000913151386</v>
       </c>
       <c r="F2">
-        <v>2.619226348534156</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008227525702711237</v>
+        <v>0.09519592740981864</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1095093395950357</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1065752072567854</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.09442898763376917</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5957890442390337</v>
+        <v>0.971817299785279</v>
       </c>
       <c r="N2">
-        <v>1.718472353694153</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.3824489017307116</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.742690008332374</v>
+        <v>2.176657169798773</v>
       </c>
       <c r="C3">
-        <v>0.7582574929146801</v>
+        <v>0.5377285758651169</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04082743858647042</v>
+        <v>0.1730423290251437</v>
       </c>
       <c r="F3">
-        <v>2.435454480088296</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008332240231687083</v>
+        <v>0.09075419205308322</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.1142796341205283</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1088371590976145</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08737617555733124</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5258691974645728</v>
+        <v>0.8431011554656678</v>
       </c>
       <c r="N3">
-        <v>1.744023277418222</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.3826385365118057</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.425795160043094</v>
+        <v>1.983099002402525</v>
       </c>
       <c r="C4">
-        <v>0.6830822586280192</v>
+        <v>0.4978236520076393</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03746118031116197</v>
+        <v>0.1586653875004842</v>
       </c>
       <c r="F4">
-        <v>2.327617587208024</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.000839811599829503</v>
+        <v>0.0888807634896196</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1177472336584131</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.110396797677403</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.08314522904638721</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4839333175043805</v>
+        <v>0.7644226201697464</v>
       </c>
       <c r="N4">
-        <v>1.761981234588944</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.3856841022274153</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.298352003836044</v>
+        <v>1.904193258391103</v>
       </c>
       <c r="C5">
-        <v>0.6527969617245901</v>
+        <v>0.4815666662998694</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03610808762220152</v>
+        <v>0.1529387547490089</v>
       </c>
       <c r="F5">
-        <v>2.284817801231867</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008425382504974647</v>
+        <v>0.08831750070701361</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.1192893057683264</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1110723284061095</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08144455304218212</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4670660357373961</v>
+        <v>0.7324311698672545</v>
       </c>
       <c r="N5">
-        <v>1.769835967234656</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.3876174496106017</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.277286065348676</v>
+        <v>1.891088624465254</v>
       </c>
       <c r="C6">
-        <v>0.6477875067444359</v>
+        <v>0.4788673665913166</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03588441974306278</v>
+        <v>0.1519954510403423</v>
       </c>
       <c r="F6">
-        <v>2.277776960035425</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008429936218438662</v>
+        <v>0.08823565040759362</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.1195529744593635</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1111868326984755</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08116353181075908</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4642778612559226</v>
+        <v>0.7271227720467408</v>
       </c>
       <c r="N6">
-        <v>1.771171722533722</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.3879790374164855</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.424069850711021</v>
+        <v>1.982034999003076</v>
       </c>
       <c r="C7">
-        <v>0.6826724840016141</v>
+        <v>0.4976043913556225</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03744286169570366</v>
+        <v>0.1585876385223699</v>
       </c>
       <c r="F7">
-        <v>2.327035881284701</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008398481985932532</v>
+        <v>0.08887237530009884</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.1177675165573646</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1104057500002611</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.08312220006026649</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4837049764132857</v>
+        <v>0.7639909093376502</v>
       </c>
       <c r="N7">
-        <v>1.762085035698874</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.3857074300491803</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.087287693371138</v>
+        <v>2.383165263968863</v>
       </c>
       <c r="C8">
-        <v>0.8398426020930856</v>
+        <v>0.5803383826402353</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0444953199218947</v>
+        <v>0.1888730381416721</v>
       </c>
       <c r="F8">
-        <v>2.554752993518733</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008263318444476175</v>
+        <v>0.09347823745620332</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1110383683632676</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1073177769682516</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.09197554266222596</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5714562283909146</v>
+        <v>0.927351179837224</v>
       </c>
       <c r="N8">
-        <v>1.726789769754873</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.3818789895971406</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.460546582919676</v>
+        <v>3.170720027196353</v>
       </c>
       <c r="C9">
-        <v>1.16418750744657</v>
+        <v>0.7430749006203143</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05927133491748648</v>
+        <v>0.253507652594152</v>
       </c>
       <c r="F9">
-        <v>3.046670794771444</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0008009585346571288</v>
+        <v>0.1099777662308909</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1024231677083449</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1027720997681811</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1102055543644127</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7528692419040723</v>
+        <v>1.251405118434164</v>
       </c>
       <c r="N9">
-        <v>1.677304404155365</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.3997249997953105</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.532734876667689</v>
+        <v>3.751691944262291</v>
       </c>
       <c r="C10">
-        <v>1.41739970964079</v>
+        <v>0.8632800757599455</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07106611463739654</v>
+        <v>0.3051734186595567</v>
       </c>
       <c r="F10">
-        <v>3.444774722894294</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007828135398227908</v>
+        <v>0.1276766445349793</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.09933936991576786</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1006063562113972</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1242543719841933</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8941295135839269</v>
+        <v>1.493114660151491</v>
       </c>
       <c r="N10">
-        <v>1.655713974643987</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.43141461943857</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.039266118181445</v>
+        <v>4.016940217961462</v>
       </c>
       <c r="C11">
-        <v>1.537194248607591</v>
+        <v>0.9181883100255845</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0767352991091883</v>
+        <v>0.3298244033388187</v>
       </c>
       <c r="F11">
-        <v>3.636234274621444</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007746157446899329</v>
+        <v>0.1371844869026475</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.09874983612331789</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09994624765611348</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1308206361979742</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9607287181344617</v>
+        <v>1.604196281546777</v>
       </c>
       <c r="N11">
-        <v>1.649828779527411</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.4506126560791444</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.234275747745244</v>
+        <v>4.117559812932541</v>
       </c>
       <c r="C12">
-        <v>1.583356050672307</v>
+        <v>0.9390206378911046</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07893592346797718</v>
+        <v>0.3393461108088331</v>
       </c>
       <c r="F12">
-        <v>3.71045977557614</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007715145448577285</v>
+        <v>0.1410164989140483</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.09865339576557375</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09975027202334985</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1333355007116239</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9863439969853331</v>
+        <v>1.646452123510002</v>
       </c>
       <c r="N12">
-        <v>1.648239238914016</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.4586378310052339</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.192125993228672</v>
+        <v>4.095881128810106</v>
       </c>
       <c r="C13">
-        <v>1.573376374113309</v>
+        <v>0.9345321324094868</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07845940362613746</v>
+        <v>0.3372867587067887</v>
       </c>
       <c r="F13">
-        <v>3.694393195251791</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007721823925910207</v>
+        <v>0.1401805350668539</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.09866836124476919</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09978994746186842</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.132792563289577</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9808086512109924</v>
+        <v>1.63734254891564</v>
       </c>
       <c r="N13">
-        <v>1.648551863250262</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.4568747413091643</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.055242479762171</v>
+        <v>4.025214501618507</v>
       </c>
       <c r="C14">
-        <v>1.540975152183705</v>
+        <v>0.9199013573701791</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07691520213513314</v>
+        <v>0.330603881762535</v>
       </c>
       <c r="F14">
-        <v>3.642304830967618</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007743605759111155</v>
+        <v>0.1374949742746807</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.09873930143749021</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09992899616437967</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1310269475706463</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9628278018845577</v>
+        <v>1.607668675341657</v>
       </c>
       <c r="N14">
-        <v>1.649684739254425</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.4512573488873954</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.971829798403519</v>
+        <v>3.981953222144512</v>
       </c>
       <c r="C15">
-        <v>1.521236831251997</v>
+        <v>0.9109449902426547</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07597667732667901</v>
+        <v>0.3265354502023285</v>
       </c>
       <c r="F15">
-        <v>3.610631272468225</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0007756950218577619</v>
+        <v>0.1358808382525964</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.09879957327076738</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1000214370904295</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1299492515644971</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9518674460951715</v>
+        <v>1.589518451894619</v>
       </c>
       <c r="N15">
-        <v>1.65046424876239</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.4479169911912919</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.500050552460607</v>
+        <v>3.734379829417094</v>
       </c>
       <c r="C16">
-        <v>1.409674664076874</v>
+        <v>0.8596968506101916</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07070255814799253</v>
+        <v>0.3035873415596129</v>
       </c>
       <c r="F16">
-        <v>3.432490082721301</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0007833500115660464</v>
+        <v>0.1270864490604922</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.09939508809556941</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.10065662709858</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1238290390464698</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8898290302247318</v>
+        <v>1.485880361420072</v>
       </c>
       <c r="N16">
-        <v>1.656183778196464</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.4302618766296717</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.215770320299214</v>
+        <v>3.582773515024087</v>
       </c>
       <c r="C17">
-        <v>1.342504688762801</v>
+        <v>0.8283206803577912</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06755150851169844</v>
+        <v>0.2898183771364913</v>
       </c>
       <c r="F17">
-        <v>3.326015519697762</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007880572419252757</v>
+        <v>0.122079665470558</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.09997549878512046</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1011343123858168</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1201215080530105</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8524089946019444</v>
+        <v>1.422610610155445</v>
       </c>
       <c r="N17">
-        <v>1.660749168858715</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.4207023935708492</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.053994401112845</v>
+        <v>3.495661609354897</v>
       </c>
       <c r="C18">
-        <v>1.304294624029467</v>
+        <v>0.8102947668788545</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06576698686194149</v>
+        <v>0.2820054673778927</v>
       </c>
       <c r="F18">
-        <v>3.265733387493867</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007907703699214881</v>
+        <v>0.1193355695166574</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.100385254749817</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1014391602160387</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1180053303185744</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.831102126165348</v>
+        <v>1.38632365622766</v>
       </c>
       <c r="N18">
-        <v>1.663740586228954</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.4156498200700867</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.999503886227672</v>
+        <v>3.466181041708239</v>
       </c>
       <c r="C19">
-        <v>1.291426446757896</v>
+        <v>0.8041948699504644</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06516728610817424</v>
+        <v>0.2793778308490502</v>
       </c>
       <c r="F19">
-        <v>3.245481066583579</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0007916900994255414</v>
+        <v>0.1184291201136105</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1005367422102097</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.101547345715133</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1172915390485088</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8239234480101558</v>
+        <v>1.374054541105323</v>
       </c>
       <c r="N19">
-        <v>1.664814166094217</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.4140136930820262</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.24584956953106</v>
+        <v>3.598902892416561</v>
       </c>
       <c r="C20">
-        <v>1.349610217515476</v>
+        <v>0.8316585211113363</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06788398995500344</v>
+        <v>0.2912729186318259</v>
       </c>
       <c r="F20">
-        <v>3.337249058291974</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007875555978628172</v>
+        <v>0.1225984493392787</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0999057867669606</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1010802988652095</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1205144731126637</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8563696502635523</v>
+        <v>1.429334799357463</v>
       </c>
       <c r="N20">
-        <v>1.660224852159246</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.4216734060798615</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.095357370917668</v>
+        <v>4.045965915040938</v>
       </c>
       <c r="C21">
-        <v>1.550469318778539</v>
+        <v>0.9241976304201671</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07736722038823629</v>
+        <v>0.3325615480414683</v>
       </c>
       <c r="F21">
-        <v>3.657555613304652</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.000773720749458542</v>
+        <v>0.1382773180156818</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.09871494086764443</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09988662431914719</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1315447546562751</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9680979587015912</v>
+        <v>1.61637916117563</v>
       </c>
       <c r="N21">
-        <v>1.649334001912678</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.4528862498766131</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.669485927879975</v>
+        <v>4.33919216776394</v>
       </c>
       <c r="C22">
-        <v>1.686475236055571</v>
+        <v>0.984912935999489</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08388496006751467</v>
+        <v>0.360647132286779</v>
       </c>
       <c r="F22">
-        <v>3.877078998779609</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007646941880172786</v>
+        <v>0.1498858408714128</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.09868089618146314</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0994256088984784</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1389208018282773</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.043459254405469</v>
+        <v>1.739756171354358</v>
       </c>
       <c r="N22">
-        <v>1.645983960537762</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.4777233208514531</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.361145778673404</v>
+        <v>4.182582914052489</v>
       </c>
       <c r="C23">
-        <v>1.61340224579078</v>
+        <v>0.9524839120385025</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08037318024750206</v>
+        <v>0.3455488366767696</v>
       </c>
       <c r="F23">
-        <v>3.758896168182531</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007695122954669166</v>
+        <v>0.1435578045259902</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.09862751015600679</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09963969686150875</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1349676145199652</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.003001297073396</v>
+        <v>1.673793417257301</v>
       </c>
       <c r="N23">
-        <v>1.647399869113826</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.4640375311819867</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.23224560503246</v>
+        <v>3.591610652372083</v>
       </c>
       <c r="C24">
-        <v>1.346396550663258</v>
+        <v>0.8301494443972501</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06773359155326375</v>
+        <v>0.2906150010669606</v>
       </c>
       <c r="F24">
-        <v>3.332167491264443</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007877823693723767</v>
+        <v>0.1223634902721855</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.09993706736473484</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1011046247790972</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1203367660866661</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8545783992750984</v>
+        <v>1.426294522557669</v>
       </c>
       <c r="N24">
-        <v>1.660460758885577</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.4212330355918681</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.079456236347369</v>
+        <v>2.957389773329965</v>
       </c>
       <c r="C25">
-        <v>1.074234079460382</v>
+        <v>0.6989639376387515</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.055138723885932</v>
+        <v>0.2353642016446997</v>
       </c>
       <c r="F25">
-        <v>2.907873916400462</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0008077199708840915</v>
+        <v>0.1046132324260327</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.1042184974659648</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.103816449567173</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.105168798683728</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7025746939114512</v>
+        <v>1.16320855432312</v>
       </c>
       <c r="N25">
-        <v>1.688318871511001</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.3918734774321706</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.491853967318889</v>
+        <v>0.8114796003346783</v>
       </c>
       <c r="C2">
-        <v>0.6027770643286487</v>
+        <v>0.2400944635495534</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1974000913151386</v>
+        <v>0.128011266478488</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.09519592740981864</v>
+        <v>0.1489167126250877</v>
       </c>
       <c r="H2">
-        <v>0.1095093395950357</v>
+        <v>0.3326029439302971</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.971817299785279</v>
+        <v>0.3323530922667359</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.3824489017307116</v>
+        <v>0.8620874481550658</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.176657169798773</v>
+        <v>0.7083981927597733</v>
       </c>
       <c r="C3">
-        <v>0.5377285758651169</v>
+        <v>0.2182580305288866</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1730423290251437</v>
+        <v>0.1236875769734027</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.09075419205308322</v>
+        <v>0.1520278776494237</v>
       </c>
       <c r="H3">
-        <v>0.1142796341205283</v>
+        <v>0.3383381682898232</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8431011554656678</v>
+        <v>0.2934763197751735</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3826385365118057</v>
+        <v>0.8804352457764253</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.983099002402525</v>
+        <v>0.6448545239592534</v>
       </c>
       <c r="C4">
-        <v>0.4978236520076393</v>
+        <v>0.204810116588277</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1586653875004842</v>
+        <v>0.1211902553770017</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0888807634896196</v>
+        <v>0.154218789276932</v>
       </c>
       <c r="H4">
-        <v>0.1177472336584131</v>
+        <v>0.3421283606212739</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7644226201697464</v>
+        <v>0.2696009283873195</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3856841022274153</v>
+        <v>0.8928499492561173</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.904193258391103</v>
+        <v>0.6188985277453298</v>
       </c>
       <c r="C5">
-        <v>0.4815666662998694</v>
+        <v>0.1993203110237403</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1529387547490089</v>
+        <v>0.1202118412629929</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.08831750070701361</v>
+        <v>0.1551817566432163</v>
       </c>
       <c r="H5">
-        <v>0.1192893057683264</v>
+        <v>0.3437403612254855</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7324311698672545</v>
+        <v>0.2598705322695096</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3876174496106017</v>
+        <v>0.8981968661569013</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.891088624465254</v>
+        <v>0.6145848955913209</v>
       </c>
       <c r="C6">
-        <v>0.4788673665913166</v>
+        <v>0.1984081622304643</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1519954510403423</v>
+        <v>0.1200517383209316</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.08823565040759362</v>
+        <v>0.1553458814633544</v>
       </c>
       <c r="H6">
-        <v>0.1195529744593635</v>
+        <v>0.3440121042542401</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7271227720467408</v>
+        <v>0.2582547557036392</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3879790374164855</v>
+        <v>0.8991020685829625</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.982034999003076</v>
+        <v>0.6445047187365844</v>
       </c>
       <c r="C7">
-        <v>0.4976043913556225</v>
+        <v>0.2047361177076255</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1585876385223699</v>
+        <v>0.1211769015909923</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.08887237530009884</v>
+        <v>0.1542314926981128</v>
       </c>
       <c r="H7">
-        <v>0.1177675165573646</v>
+        <v>0.3421498276038193</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7639909093376502</v>
+        <v>0.2694697044944547</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3857074300491803</v>
+        <v>0.8929208957475652</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.383165263968863</v>
+        <v>0.7759902944217743</v>
       </c>
       <c r="C8">
-        <v>0.5803383826402353</v>
+        <v>0.2325738790854928</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1888730381416721</v>
+        <v>0.1264875841679114</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.09347823745620332</v>
+        <v>0.1499309445171733</v>
       </c>
       <c r="H8">
-        <v>0.1110383683632676</v>
+        <v>0.3345246059833187</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.927351179837224</v>
+        <v>0.3189495346612787</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.3818789895971406</v>
+        <v>0.8681746049389005</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.170720027196353</v>
+        <v>1.031775309555826</v>
       </c>
       <c r="C9">
-        <v>0.7430749006203143</v>
+        <v>0.2868271810120291</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.253507652594152</v>
+        <v>0.1381663848682351</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.1099777662308909</v>
+        <v>0.1437430534627282</v>
       </c>
       <c r="H9">
-        <v>0.1024231677083449</v>
+        <v>0.3217087515222374</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.251405118434164</v>
+        <v>0.4159344621142651</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.3997249997953105</v>
+        <v>0.8288146528973073</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.751691944262291</v>
+        <v>1.218378602859786</v>
       </c>
       <c r="C10">
-        <v>0.8632800757599455</v>
+        <v>0.3264631197191079</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3051734186595567</v>
+        <v>0.1475399232036096</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.1276766445349793</v>
+        <v>0.1405913935047778</v>
       </c>
       <c r="H10">
-        <v>0.09933936991576786</v>
+        <v>0.313602301788535</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.493114660151491</v>
+        <v>0.4871612257980331</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.43141461943857</v>
+        <v>0.8055539781493621</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.016940217961462</v>
+        <v>1.302969309401192</v>
       </c>
       <c r="C11">
-        <v>0.9181883100255845</v>
+        <v>0.344442231038272</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3298244033388187</v>
+        <v>0.1519812421037727</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.1371844869026475</v>
+        <v>0.1394659249229591</v>
       </c>
       <c r="H11">
-        <v>0.09874983612331789</v>
+        <v>0.3102001649999551</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.604196281546777</v>
+        <v>0.5195584010138674</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.4506126560791444</v>
+        <v>0.7962150686160214</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.117559812932541</v>
+        <v>1.334957570898951</v>
       </c>
       <c r="C12">
-        <v>0.9390206378911046</v>
+        <v>0.3512426643350182</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3393461108088331</v>
+        <v>0.15368891202084</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.1410164989140483</v>
+        <v>0.139084507345359</v>
       </c>
       <c r="H12">
-        <v>0.09865339576557375</v>
+        <v>0.3089530430230241</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.646452123510002</v>
+        <v>0.5318256287943655</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4586378310052339</v>
+        <v>0.792858533130385</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.095881128810106</v>
+        <v>1.328070330214189</v>
       </c>
       <c r="C13">
-        <v>0.9345321324094868</v>
+        <v>0.349778426518526</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3372867587067887</v>
+        <v>0.153319979975123</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.1401805350668539</v>
+        <v>0.1391646540301679</v>
       </c>
       <c r="H13">
-        <v>0.09866836124476919</v>
+        <v>0.3092197988234133</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.63734254891564</v>
+        <v>0.529183705171107</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4568747413091643</v>
+        <v>0.7935734020238385</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.025214501618507</v>
+        <v>1.305601903244565</v>
       </c>
       <c r="C14">
-        <v>0.9199013573701791</v>
+        <v>0.3450018670608301</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.330603881762535</v>
+        <v>0.1521212132775176</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.1374949742746807</v>
+        <v>0.1394336455887029</v>
       </c>
       <c r="H14">
-        <v>0.09873930143749021</v>
+        <v>0.310096737176444</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.607668675341657</v>
+        <v>0.5205676523828799</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4512573488873954</v>
+        <v>0.795935311741971</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.981953222144512</v>
+        <v>1.291833506383512</v>
       </c>
       <c r="C15">
-        <v>0.9109449902426547</v>
+        <v>0.3420750484211794</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3265354502023285</v>
+        <v>0.1513903094514291</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.1358808382525964</v>
+        <v>0.1396042547322978</v>
       </c>
       <c r="H15">
-        <v>0.09879957327076738</v>
+        <v>0.3106392558301039</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.589518451894619</v>
+        <v>0.5152899487999036</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4479169911912919</v>
+        <v>0.7974055155082311</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.734379829417094</v>
+        <v>1.212844286838106</v>
       </c>
       <c r="C16">
-        <v>0.8596968506101916</v>
+        <v>0.3252870669155641</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3035873415596129</v>
+        <v>0.1472532692425474</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.1270864490604922</v>
+        <v>0.1406711864544192</v>
       </c>
       <c r="H16">
-        <v>0.09939508809556941</v>
+        <v>0.3138303965120244</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.485880361420072</v>
+        <v>0.485043885768988</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4302618766296717</v>
+        <v>0.8061894058740791</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.582773515024087</v>
+        <v>1.164309821844483</v>
       </c>
       <c r="C17">
-        <v>0.8283206803577912</v>
+        <v>0.3149746680881833</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2898183771364913</v>
+        <v>0.1447609762531457</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.122079665470558</v>
+        <v>0.141404981418944</v>
       </c>
       <c r="H17">
-        <v>0.09997549878512046</v>
+        <v>0.3158612845246793</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.422610610155445</v>
+        <v>0.4664876271474867</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4207023935708492</v>
+        <v>0.8118971518993163</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.495661609354897</v>
+        <v>1.136366322148547</v>
       </c>
       <c r="C18">
-        <v>0.8102947668788545</v>
+        <v>0.3090384312513095</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2820054673778927</v>
+        <v>0.1433441378165838</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.1193355695166574</v>
+        <v>0.1418560269242946</v>
       </c>
       <c r="H18">
-        <v>0.100385254749817</v>
+        <v>0.3170562647840356</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.38632365622766</v>
+        <v>0.4558141750896851</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4156498200700867</v>
+        <v>0.8152969715586522</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.466181041708239</v>
+        <v>1.126900421666164</v>
       </c>
       <c r="C19">
-        <v>0.8041948699504644</v>
+        <v>0.3070277102165448</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2793778308490502</v>
+        <v>0.1428672718000641</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.1184291201136105</v>
+        <v>0.1420137078587871</v>
       </c>
       <c r="H19">
-        <v>0.1005367422102097</v>
+        <v>0.3174654749210077</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.374054541105323</v>
+        <v>0.4522002701499872</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4140136930820262</v>
+        <v>0.8164681276771688</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.598902892416561</v>
+        <v>1.169479284770603</v>
       </c>
       <c r="C20">
-        <v>0.8316585211113363</v>
+        <v>0.3160729425472368</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2912729186318259</v>
+        <v>0.1450245580449092</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.1225984493392787</v>
+        <v>0.141323864488001</v>
       </c>
       <c r="H20">
-        <v>0.0999057867669606</v>
+        <v>0.315642311396779</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.429334799357463</v>
+        <v>0.4684630141555459</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.4216734060798615</v>
+        <v>0.8112774474670488</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.045965915040938</v>
+        <v>1.312202644464207</v>
       </c>
       <c r="C21">
-        <v>0.9241976304201671</v>
+        <v>0.3464050755084713</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3325615480414683</v>
+        <v>0.1524726160609546</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.1382773180156818</v>
+        <v>0.1393534175551991</v>
       </c>
       <c r="H21">
-        <v>0.09871494086764443</v>
+        <v>0.3098380400751353</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.61637916117563</v>
+        <v>0.5230984219414836</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.4528862498766131</v>
+        <v>0.7952366691354342</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.33919216776394</v>
+        <v>1.405220958833354</v>
       </c>
       <c r="C22">
-        <v>0.984912935999489</v>
+        <v>0.3661828175572168</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.360647132286779</v>
+        <v>0.1574911239692938</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.1498858408714128</v>
+        <v>0.1383267945095952</v>
       </c>
       <c r="H22">
-        <v>0.09868089618146314</v>
+        <v>0.3062847821876318</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.739756171354358</v>
+        <v>0.5588005711824025</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.4777233208514531</v>
+        <v>0.7858022996285285</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.182582914052489</v>
+        <v>1.355599691596638</v>
       </c>
       <c r="C23">
-        <v>0.9524839120385025</v>
+        <v>0.3556314307761568</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3455488366767696</v>
+        <v>0.1547987403350959</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.1435578045259902</v>
+        <v>0.1388506769581923</v>
       </c>
       <c r="H23">
-        <v>0.09862751015600679</v>
+        <v>0.3081592028473921</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.673793417257301</v>
+        <v>0.5397462306257665</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.4640375311819867</v>
+        <v>0.790741189703084</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.591610652372083</v>
+        <v>1.167142296253758</v>
       </c>
       <c r="C24">
-        <v>0.8301494443972501</v>
+        <v>0.3155764359963484</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2906150010669606</v>
+        <v>0.1449053428628346</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.1223634902721855</v>
+        <v>0.1413604466027607</v>
       </c>
       <c r="H24">
-        <v>0.09993706736473484</v>
+        <v>0.3157412238212487</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.426294522557669</v>
+        <v>0.4675699579078127</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.4212330355918681</v>
+        <v>0.8115572472489418</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.957389773329965</v>
+        <v>0.9628060341931928</v>
       </c>
       <c r="C25">
-        <v>0.6989639376387515</v>
+        <v>0.2721882152126227</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2353642016446997</v>
+        <v>0.1348692843037043</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.1046132324260327</v>
+        <v>0.1451739872769622</v>
       </c>
       <c r="H25">
-        <v>0.1042184974659648</v>
+        <v>0.3249463094723382</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.16320855432312</v>
+        <v>0.3897023624069647</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.3918734774321706</v>
+        <v>0.8384740420849113</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8114796003346783</v>
+        <v>2.491853967318889</v>
       </c>
       <c r="C2">
-        <v>0.2400944635495534</v>
+        <v>0.602777064328933</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.128011266478488</v>
+        <v>0.1974000913151599</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.1489167126250877</v>
+        <v>0.09519592740983285</v>
       </c>
       <c r="H2">
-        <v>0.3326029439302971</v>
+        <v>0.1095093395950428</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3323530922667359</v>
+        <v>0.9718172997852861</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8620874481550658</v>
+        <v>0.3824489017307116</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7083981927597733</v>
+        <v>2.176657169798716</v>
       </c>
       <c r="C3">
-        <v>0.2182580305288866</v>
+        <v>0.537728575864918</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1236875769734027</v>
+        <v>0.1730423290251153</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.1520278776494237</v>
+        <v>0.09075419205314006</v>
       </c>
       <c r="H3">
-        <v>0.3383381682898232</v>
+        <v>0.1142796341205354</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2934763197751735</v>
+        <v>0.8431011554656678</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8804352457764253</v>
+        <v>0.3826385365118057</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6448545239592534</v>
+        <v>1.983099002402525</v>
       </c>
       <c r="C4">
-        <v>0.204810116588277</v>
+        <v>0.4978236520076393</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1211902553770017</v>
+        <v>0.1586653875004842</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.154218789276932</v>
+        <v>0.0888807634896196</v>
       </c>
       <c r="H4">
-        <v>0.3421283606212739</v>
+        <v>0.1177472336584131</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2696009283873195</v>
+        <v>0.764422620169718</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8928499492561173</v>
+        <v>0.3856841022274153</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6188985277453298</v>
+        <v>1.90419325839116</v>
       </c>
       <c r="C5">
-        <v>0.1993203110237403</v>
+        <v>0.4815666662999547</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1202118412629929</v>
+        <v>0.1529387547489875</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.1551817566432163</v>
+        <v>0.08831750070701005</v>
       </c>
       <c r="H5">
-        <v>0.3437403612254855</v>
+        <v>0.1192893057683264</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2598705322695096</v>
+        <v>0.7324311698672332</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8981968661569013</v>
+        <v>0.3876174496106017</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6145848955913209</v>
+        <v>1.891088624465397</v>
       </c>
       <c r="C6">
-        <v>0.1984081622304643</v>
+        <v>0.4788673665912881</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1200517383209316</v>
+        <v>0.1519954510403352</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.1553458814633544</v>
+        <v>0.08823565040759362</v>
       </c>
       <c r="H6">
-        <v>0.3440121042542401</v>
+        <v>0.1195529744593706</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2582547557036392</v>
+        <v>0.7271227720467337</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8991020685829625</v>
+        <v>0.3879790374164855</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6445047187365844</v>
+        <v>1.98203499900319</v>
       </c>
       <c r="C7">
-        <v>0.2047361177076255</v>
+        <v>0.4976043913555372</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1211769015909923</v>
+        <v>0.1585876385223983</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.1542314926981128</v>
+        <v>0.0888723753000491</v>
       </c>
       <c r="H7">
-        <v>0.3421498276038193</v>
+        <v>0.1177675165573646</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2694697044944547</v>
+        <v>0.7639909093376716</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8929208957475652</v>
+        <v>0.3857074300492371</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7759902944217743</v>
+        <v>2.383165263968863</v>
       </c>
       <c r="C8">
-        <v>0.2325738790854928</v>
+        <v>0.5803383826400079</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1264875841679114</v>
+        <v>0.1888730381416721</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.1499309445171733</v>
+        <v>0.09347823745621753</v>
       </c>
       <c r="H8">
-        <v>0.3345246059833187</v>
+        <v>0.1110383683632676</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3189495346612787</v>
+        <v>0.9273511798372169</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8681746049389005</v>
+        <v>0.3818789895971548</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.031775309555826</v>
+        <v>3.170720027196182</v>
       </c>
       <c r="C9">
-        <v>0.2868271810120291</v>
+        <v>0.7430749006202859</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1381663848682351</v>
+        <v>0.2535076525941165</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.1437430534627282</v>
+        <v>0.1099777662308909</v>
       </c>
       <c r="H9">
-        <v>0.3217087515222374</v>
+        <v>0.1024231677083449</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4159344621142651</v>
+        <v>1.251405118434178</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8288146528973073</v>
+        <v>0.3997249997952963</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.218378602859786</v>
+        <v>3.751691944262575</v>
       </c>
       <c r="C10">
-        <v>0.3264631197191079</v>
+        <v>0.8632800757598886</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1475399232036096</v>
+        <v>0.3051734186595638</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.1405913935047778</v>
+        <v>0.1276766445348585</v>
       </c>
       <c r="H10">
-        <v>0.313602301788535</v>
+        <v>0.09933936991576076</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4871612257980331</v>
+        <v>1.493114660151505</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8055539781493621</v>
+        <v>0.4314146194385415</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.302969309401192</v>
+        <v>4.016940217961292</v>
       </c>
       <c r="C11">
-        <v>0.344442231038272</v>
+        <v>0.9181883100258119</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1519812421037727</v>
+        <v>0.32982440333884</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.1394659249229591</v>
+        <v>0.1371844869026404</v>
       </c>
       <c r="H11">
-        <v>0.3102001649999551</v>
+        <v>0.09874983612343158</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5195584010138674</v>
+        <v>1.604196281546791</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7962150686160214</v>
+        <v>0.4506126560792012</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.334957570898951</v>
+        <v>4.117559812932654</v>
       </c>
       <c r="C12">
-        <v>0.3512426643350182</v>
+        <v>0.9390206378911046</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.15368891202084</v>
+        <v>0.3393461108088687</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.139084507345359</v>
+        <v>0.1410164989141052</v>
       </c>
       <c r="H12">
-        <v>0.3089530430230241</v>
+        <v>0.09865339576557375</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5318256287943655</v>
+        <v>1.646452123510016</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.792858533130385</v>
+        <v>0.4586378310052339</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.328070330214189</v>
+        <v>4.095881128810106</v>
       </c>
       <c r="C13">
-        <v>0.349778426518526</v>
+        <v>0.9345321324094584</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.153319979975123</v>
+        <v>0.3372867587067816</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.1391646540301679</v>
+        <v>0.1401805350667971</v>
       </c>
       <c r="H13">
-        <v>0.3092197988234133</v>
+        <v>0.09866836124476919</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.529183705171107</v>
+        <v>1.637342548915626</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7935734020238385</v>
+        <v>0.4568747413091785</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.305601903244565</v>
+        <v>4.025214501618507</v>
       </c>
       <c r="C14">
-        <v>0.3450018670608301</v>
+        <v>0.9199013573704349</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1521212132775176</v>
+        <v>0.3306038817624994</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.1394336455887029</v>
+        <v>0.1374949742746168</v>
       </c>
       <c r="H14">
-        <v>0.310096737176444</v>
+        <v>0.09873930143749021</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5205676523828799</v>
+        <v>1.607668675341657</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.795935311741971</v>
+        <v>0.4512573488873386</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.291833506383512</v>
+        <v>3.981953222144682</v>
       </c>
       <c r="C15">
-        <v>0.3420750484211794</v>
+        <v>0.91094499024274</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1513903094514291</v>
+        <v>0.3265354502023285</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.1396042547322978</v>
+        <v>0.1358808382526533</v>
       </c>
       <c r="H15">
-        <v>0.3106392558301039</v>
+        <v>0.09879957327076738</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5152899487999036</v>
+        <v>1.589518451894605</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.7974055155082311</v>
+        <v>0.4479169911912919</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.212844286838106</v>
+        <v>3.734379829417378</v>
       </c>
       <c r="C16">
-        <v>0.3252870669155641</v>
+        <v>0.8596968506099074</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1472532692425474</v>
+        <v>0.30358734155962</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.1406711864544192</v>
+        <v>0.1270864490605419</v>
       </c>
       <c r="H16">
-        <v>0.3138303965120244</v>
+        <v>0.09939508809557651</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.485043885768988</v>
+        <v>1.485880361420058</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.8061894058740791</v>
+        <v>0.4302618766296291</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.164309821844483</v>
+        <v>3.582773515023746</v>
       </c>
       <c r="C17">
-        <v>0.3149746680881833</v>
+        <v>0.8283206803577912</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1447609762531457</v>
+        <v>0.2898183771364913</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.141404981418944</v>
+        <v>0.122079665470622</v>
       </c>
       <c r="H17">
-        <v>0.3158612845246793</v>
+        <v>0.09997549878512046</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4664876271474867</v>
+        <v>1.422610610155445</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8118971518993163</v>
+        <v>0.420702393570906</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.136366322148547</v>
+        <v>3.495661609354727</v>
       </c>
       <c r="C18">
-        <v>0.3090384312513095</v>
+        <v>0.8102947668784282</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1433441378165838</v>
+        <v>0.2820054673778998</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.1418560269242946</v>
+        <v>0.1193355695165437</v>
       </c>
       <c r="H18">
-        <v>0.3170562647840356</v>
+        <v>0.100385254749817</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4558141750896851</v>
+        <v>1.386323656227646</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8152969715586522</v>
+        <v>0.4156498200701009</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.126900421666164</v>
+        <v>3.466181041708296</v>
       </c>
       <c r="C19">
-        <v>0.3070277102165448</v>
+        <v>0.8041948699504076</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1428672718000641</v>
+        <v>0.2793778308490573</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.1420137078587871</v>
+        <v>0.1184291201136176</v>
       </c>
       <c r="H19">
-        <v>0.3174654749210077</v>
+        <v>0.1005367422101031</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4522002701499872</v>
+        <v>1.374054541105352</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8164681276771688</v>
+        <v>0.4140136930819551</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.169479284770603</v>
+        <v>3.598902892416334</v>
       </c>
       <c r="C20">
-        <v>0.3160729425472368</v>
+        <v>0.8316585211115353</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1450245580449092</v>
+        <v>0.2912729186318259</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.141323864488001</v>
+        <v>0.1225984493392787</v>
       </c>
       <c r="H20">
-        <v>0.315642311396779</v>
+        <v>0.09990578676706718</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4684630141555459</v>
+        <v>1.429334799357449</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8112774474670488</v>
+        <v>0.4216734060798473</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.312202644464207</v>
+        <v>4.045965915040824</v>
       </c>
       <c r="C21">
-        <v>0.3464050755084713</v>
+        <v>0.9241976304203092</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1524726160609546</v>
+        <v>0.3325615480414683</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.1393534175551991</v>
+        <v>0.1382773180156818</v>
       </c>
       <c r="H21">
-        <v>0.3098380400751353</v>
+        <v>0.09871494086775101</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5230984219414836</v>
+        <v>1.61637916117563</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7952366691354342</v>
+        <v>0.4528862498766131</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.405220958833354</v>
+        <v>4.339192167763827</v>
       </c>
       <c r="C22">
-        <v>0.3661828175572168</v>
+        <v>0.9849129359992901</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1574911239692938</v>
+        <v>0.3606471322867861</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.1383267945095952</v>
+        <v>0.1498858408714057</v>
       </c>
       <c r="H22">
-        <v>0.3062847821876318</v>
+        <v>0.09868089618146314</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5588005711824025</v>
+        <v>1.73975617135433</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7858022996285285</v>
+        <v>0.4777233208515099</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.355599691596638</v>
+        <v>4.182582914052261</v>
       </c>
       <c r="C23">
-        <v>0.3556314307761568</v>
+        <v>0.9524839120383319</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1547987403350959</v>
+        <v>0.3455488366767483</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.1388506769581923</v>
+        <v>0.1435578045259902</v>
       </c>
       <c r="H23">
-        <v>0.3081592028473921</v>
+        <v>0.09862751015600679</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5397462306257665</v>
+        <v>1.673793417257301</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.790741189703084</v>
+        <v>0.4640375311820009</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.167142296253758</v>
+        <v>3.591610652371855</v>
       </c>
       <c r="C24">
-        <v>0.3155764359963484</v>
+        <v>0.830149444397307</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1449053428628346</v>
+        <v>0.2906150010669464</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.1413604466027607</v>
+        <v>0.1223634902722708</v>
       </c>
       <c r="H24">
-        <v>0.3157412238212487</v>
+        <v>0.09993706736472063</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4675699579078127</v>
+        <v>1.426294522557654</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8115572472489418</v>
+        <v>0.4212330355918681</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9628060341931928</v>
+        <v>2.957389773329737</v>
       </c>
       <c r="C25">
-        <v>0.2721882152126227</v>
+        <v>0.6989639376382968</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1348692843037043</v>
+        <v>0.2353642016446997</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.1451739872769622</v>
+        <v>0.1046132324260896</v>
       </c>
       <c r="H25">
-        <v>0.3249463094723382</v>
+        <v>0.1042184974658582</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3897023624069647</v>
+        <v>1.163208554323134</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8384740420849113</v>
+        <v>0.3918734774321848</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.491853967318889</v>
+        <v>2.379232916078365</v>
       </c>
       <c r="C2">
-        <v>0.602777064328933</v>
+        <v>0.4923923501973206</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1974000913151599</v>
+        <v>0.06572740299663415</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>1.280252717183217</v>
       </c>
       <c r="G2">
-        <v>0.09519592740983285</v>
+        <v>0.8535897289873304</v>
       </c>
       <c r="H2">
-        <v>0.1095093395950428</v>
+        <v>0.003602819016931158</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001577377617564935</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5747289409199681</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5533831837963064</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.05498626392925132</v>
       </c>
       <c r="M2">
-        <v>0.9718172997852861</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2684286884553586</v>
       </c>
       <c r="O2">
-        <v>0.3824489017307116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4612799062370243</v>
+      </c>
+      <c r="P2">
+        <v>0.8886752670374296</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.176657169798716</v>
+        <v>2.073742374198162</v>
       </c>
       <c r="C3">
-        <v>0.537728575864918</v>
+        <v>0.434132249748302</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1730423290251153</v>
+        <v>0.06287255407448544</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.199971736942445</v>
       </c>
       <c r="G3">
-        <v>0.09075419205314006</v>
+        <v>0.7902706841323948</v>
       </c>
       <c r="H3">
-        <v>0.1142796341205354</v>
+        <v>0.005676150596752583</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.002866301130783455</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5499066177971343</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.536405637831173</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.05155664065143029</v>
       </c>
       <c r="M3">
-        <v>0.8431011554656678</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2421148114672036</v>
       </c>
       <c r="O3">
-        <v>0.3826385365118057</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4045422362605109</v>
+      </c>
+      <c r="P3">
+        <v>0.9193194009251897</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.983099002402525</v>
+        <v>1.885779055270518</v>
       </c>
       <c r="C4">
-        <v>0.4978236520076393</v>
+        <v>0.398567587945422</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1586653875004842</v>
+        <v>0.06111111978921135</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.151343276981251</v>
       </c>
       <c r="G4">
-        <v>0.0888807634896196</v>
+        <v>0.7519854409828497</v>
       </c>
       <c r="H4">
-        <v>0.1177472336584131</v>
+        <v>0.007237857177154028</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.003971191924922568</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5350537605695962</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5262634921740315</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.04942639254402792</v>
       </c>
       <c r="M4">
-        <v>0.764422620169718</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2260503586118645</v>
       </c>
       <c r="O4">
-        <v>0.3856841022274153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.369708020129778</v>
+      </c>
+      <c r="P4">
+        <v>0.9387525339250633</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.90419325839116</v>
+        <v>1.807746487562525</v>
       </c>
       <c r="C5">
-        <v>0.4815666662999547</v>
+        <v>0.3844304578525453</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1529387547489875</v>
+        <v>0.06038869045349626</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.130913586554229</v>
       </c>
       <c r="G5">
-        <v>0.08831750070701005</v>
+        <v>0.7355946717801061</v>
       </c>
       <c r="H5">
-        <v>0.1192893057683264</v>
+        <v>0.007948014861600405</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.004574546961619408</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5286229089075505</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5216029099366111</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.04859289625614593</v>
       </c>
       <c r="M5">
-        <v>0.7324311698672332</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2197224710037631</v>
       </c>
       <c r="O5">
-        <v>0.3876174496106017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3554362094563785</v>
+      </c>
+      <c r="P5">
+        <v>0.9468283197143634</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.891088624465397</v>
+        <v>1.793160895210491</v>
       </c>
       <c r="C6">
-        <v>0.4788673665912881</v>
+        <v>0.3824697651099882</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1519954510403352</v>
+        <v>0.06026672722114812</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.126590026793522</v>
       </c>
       <c r="G6">
-        <v>0.08823565040759362</v>
+        <v>0.7317500074990448</v>
       </c>
       <c r="H6">
-        <v>0.1195529744593706</v>
+        <v>0.008075388359731983</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.004781971781039118</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5269860594248428</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5201072326910037</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.04850450281846008</v>
       </c>
       <c r="M6">
-        <v>0.7271227720467337</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2189152340894935</v>
       </c>
       <c r="O6">
-        <v>0.3879790374164855</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3529750666118616</v>
+      </c>
+      <c r="P6">
+        <v>0.948187832466882</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.98203499900319</v>
+        <v>1.880282392656369</v>
       </c>
       <c r="C7">
-        <v>0.4976043913555372</v>
+        <v>0.3994300590276225</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1585876385223983</v>
+        <v>0.06109653745134969</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.148497784577728</v>
       </c>
       <c r="G7">
-        <v>0.0888723753000491</v>
+        <v>0.7486711558830592</v>
       </c>
       <c r="H7">
-        <v>0.1177675165573646</v>
+        <v>0.007260702436564653</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.004242542113788161</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5333972559418356</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5242176864964136</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.04955350686473636</v>
       </c>
       <c r="M7">
-        <v>0.7639909093376716</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2266278241209818</v>
       </c>
       <c r="O7">
-        <v>0.3857074300492371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3692656234896177</v>
+      </c>
+      <c r="P7">
+        <v>0.9389031180521581</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.383165263968863</v>
+        <v>2.268021643750899</v>
       </c>
       <c r="C8">
-        <v>0.5803383826400079</v>
+        <v>0.4736630865574796</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1888730381416721</v>
+        <v>0.06473789601151392</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.249022474540155</v>
       </c>
       <c r="G8">
-        <v>0.09347823745621753</v>
+        <v>0.8275190402770392</v>
       </c>
       <c r="H8">
-        <v>0.1110383683632676</v>
+        <v>0.004268930595667908</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002264960164605867</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5640077011642006</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5448446841339418</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.05399540829334271</v>
       </c>
       <c r="M8">
-        <v>0.9273511798372169</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2602180924074844</v>
       </c>
       <c r="O8">
-        <v>0.3818789895971548</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4413786724095061</v>
+      </c>
+      <c r="P8">
+        <v>0.8992412713092737</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.170720027196182</v>
+        <v>3.034022283735339</v>
       </c>
       <c r="C9">
-        <v>0.7430749006202859</v>
+        <v>0.6194582120681673</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2535076525941165</v>
+        <v>0.07186762085531928</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>1.456589313338526</v>
       </c>
       <c r="G9">
-        <v>0.1099777662308909</v>
+        <v>0.9930605300569795</v>
       </c>
       <c r="H9">
-        <v>0.1024231677083449</v>
+        <v>0.0008290328175861728</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0006684478824450224</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6302202422783978</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5913098488579536</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.0622685350245753</v>
       </c>
       <c r="M9">
-        <v>1.251405118434178</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3257425516456181</v>
       </c>
       <c r="O9">
-        <v>0.3997249997952963</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5834180379350613</v>
+      </c>
+      <c r="P9">
+        <v>0.8263648486683941</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.751691944262575</v>
+        <v>3.57935152039579</v>
       </c>
       <c r="C10">
-        <v>0.8632800757598886</v>
+        <v>0.7309334561014111</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3051734186595638</v>
+        <v>0.07642492139232449</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>1.591154333112641</v>
       </c>
       <c r="G10">
-        <v>0.1276766445348585</v>
+        <v>1.103971102666478</v>
       </c>
       <c r="H10">
-        <v>0.09933936991576076</v>
+        <v>0.0002092687751891198</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001488471293241034</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6738837287450679</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.6185863235223152</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.06964410227106654</v>
       </c>
       <c r="M10">
-        <v>1.493114660151505</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3642824549297927</v>
       </c>
       <c r="O10">
-        <v>0.4314146194385415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6799091472512728</v>
+      </c>
+      <c r="P10">
+        <v>0.7776400308520373</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.016940217961292</v>
+        <v>3.690428407616025</v>
       </c>
       <c r="C11">
-        <v>0.9181883100258119</v>
+        <v>0.8001456601099051</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.32982440333884</v>
+        <v>0.07452866074798381</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>1.469659938892832</v>
       </c>
       <c r="G11">
-        <v>0.1371844869026404</v>
+        <v>1.035497843187329</v>
       </c>
       <c r="H11">
-        <v>0.09874983612343158</v>
+        <v>0.0187607333618196</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002406874765219058</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6342937372673987</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5629075309029474</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08744738843159894</v>
       </c>
       <c r="M11">
-        <v>1.604196281546791</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2961180824958092</v>
       </c>
       <c r="O11">
-        <v>0.4506126560792012</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6538473373701947</v>
+      </c>
+      <c r="P11">
+        <v>0.7746542698831256</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.117559812932654</v>
+        <v>3.673943427709276</v>
       </c>
       <c r="C12">
-        <v>0.9390206378911046</v>
+        <v>0.8338090566991525</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3393461108088687</v>
+        <v>0.07524898558887649</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>1.345834736679052</v>
       </c>
       <c r="G12">
-        <v>0.1410164989141052</v>
+        <v>0.9601800990964335</v>
       </c>
       <c r="H12">
-        <v>0.09865339576557375</v>
+        <v>0.05743955401255363</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002477619825482336</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5944407526528437</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5148711846367817</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.104235501977378</v>
       </c>
       <c r="M12">
-        <v>1.646452123510016</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2367578352228605</v>
       </c>
       <c r="O12">
-        <v>0.4586378310052339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.6122870029987837</v>
+      </c>
+      <c r="P12">
+        <v>0.7895803191047364</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.095881128810106</v>
+        <v>3.551252438585834</v>
       </c>
       <c r="C13">
-        <v>0.9345321324094584</v>
+        <v>0.8432809988944427</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3372867587067816</v>
+        <v>0.07788505569914861</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>1.209380758679117</v>
       </c>
       <c r="G13">
-        <v>0.1401805350667971</v>
+        <v>0.870363789807854</v>
       </c>
       <c r="H13">
-        <v>0.09866836124476919</v>
+        <v>0.1132242245208062</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.00220869398376955</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5495735582374408</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.466829576692767</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1212250326808118</v>
       </c>
       <c r="M13">
-        <v>1.637342548915626</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1820921286238502</v>
       </c>
       <c r="O13">
-        <v>0.4568747413091785</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5563261361256266</v>
+      </c>
+      <c r="P13">
+        <v>0.8182954176854409</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.025214501618507</v>
+        <v>3.416492665423505</v>
       </c>
       <c r="C14">
-        <v>0.9199013573704349</v>
+        <v>0.8392952923494192</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3306038817624994</v>
+        <v>0.08096234966800964</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>1.108879652584676</v>
       </c>
       <c r="G14">
-        <v>0.1374949742746168</v>
+        <v>0.8009034190840509</v>
       </c>
       <c r="H14">
-        <v>0.09873930143749021</v>
+        <v>0.1626329370668884</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00198281665454747</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.515838210154655</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4332365549042834</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.133610554828941</v>
       </c>
       <c r="M14">
-        <v>1.607668675341657</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1474106767615666</v>
       </c>
       <c r="O14">
-        <v>0.4512573488873386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5110489983990618</v>
+      </c>
+      <c r="P14">
+        <v>0.8454090261651501</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.981953222144682</v>
+        <v>3.359775429434762</v>
       </c>
       <c r="C15">
-        <v>0.91094499024274</v>
+        <v>0.8335315082857448</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3265354502023285</v>
+        <v>0.08166154751436139</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>1.080713912372872</v>
       </c>
       <c r="G15">
-        <v>0.1358808382526533</v>
+        <v>0.779870957531557</v>
       </c>
       <c r="H15">
-        <v>0.09879957327076738</v>
+        <v>0.1751801190453079</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001985574638670329</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5060507076157847</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4243117670645873</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1362992899989095</v>
       </c>
       <c r="M15">
-        <v>1.589518451894605</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1392255625758594</v>
       </c>
       <c r="O15">
-        <v>0.4479169911912919</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4969219719102256</v>
+      </c>
+      <c r="P15">
+        <v>0.8542527777989548</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.734379829417378</v>
+        <v>3.149919182643544</v>
       </c>
       <c r="C16">
-        <v>0.8596968506099074</v>
+        <v>0.7832841473638723</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.30358734155962</v>
+        <v>0.07892478584239271</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>1.051488009581661</v>
       </c>
       <c r="G16">
-        <v>0.1270864490605419</v>
+        <v>0.7496309230815825</v>
       </c>
       <c r="H16">
-        <v>0.09939508809557651</v>
+        <v>0.1627037902619151</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001703736139837986</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.495792167748462</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4216873335195359</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1292270925163237</v>
       </c>
       <c r="M16">
-        <v>1.485880361420058</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1356066475888156</v>
       </c>
       <c r="O16">
-        <v>0.4302618766296291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.468229715794358</v>
+      </c>
+      <c r="P16">
+        <v>0.8663757603076832</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.582773515023746</v>
+        <v>3.060309047252929</v>
       </c>
       <c r="C17">
-        <v>0.8283206803577912</v>
+        <v>0.747113761347606</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2898183771364913</v>
+        <v>0.07495685548216535</v>
       </c>
       <c r="F17">
-        <v>2.164227570872086</v>
+        <v>1.081681524746116</v>
       </c>
       <c r="G17">
-        <v>0.122079665470622</v>
+        <v>0.7629774231853617</v>
       </c>
       <c r="H17">
-        <v>0.09997549878512046</v>
+        <v>0.1251215587788153</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001661982494550962</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5057200240800626</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4372257334508944</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1170311092649854</v>
       </c>
       <c r="M17">
-        <v>1.422610610155445</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1503715292421575</v>
       </c>
       <c r="O17">
-        <v>0.420702393570906</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4699471311194685</v>
+      </c>
+      <c r="P17">
+        <v>0.8612977528074026</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.495661609354727</v>
+        <v>3.066779227767768</v>
       </c>
       <c r="C18">
-        <v>0.8102947668784282</v>
+        <v>0.717987443886841</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2820054673778998</v>
+        <v>0.07105009249751504</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>1.170326842445618</v>
       </c>
       <c r="G18">
-        <v>0.1193355695165437</v>
+        <v>0.818376905584131</v>
       </c>
       <c r="H18">
-        <v>0.100385254749817</v>
+        <v>0.07234205323191389</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001427328036108122</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5355907865586147</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4724819739386703</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1003982773414052</v>
       </c>
       <c r="M18">
-        <v>1.386323656227646</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1861393563379679</v>
       </c>
       <c r="O18">
-        <v>0.4156498200701009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.49867247205772</v>
+      </c>
+      <c r="P18">
+        <v>0.8434721154794218</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.466181041708296</v>
+        <v>3.141308730341507</v>
       </c>
       <c r="C19">
-        <v>0.8041948699504076</v>
+        <v>0.6990391016489355</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2793778308490573</v>
+        <v>0.06971690862041702</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>1.299605761288248</v>
       </c>
       <c r="G19">
-        <v>0.1184291201136176</v>
+        <v>0.900432284436036</v>
       </c>
       <c r="H19">
-        <v>0.1005367422101031</v>
+        <v>0.02693994229808538</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001562838278022838</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5775924742726346</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5197990030455131</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08425624089626993</v>
       </c>
       <c r="M19">
-        <v>1.374054541105352</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2431085420763139</v>
       </c>
       <c r="O19">
-        <v>0.4140136930819551</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5476863782758485</v>
+      </c>
+      <c r="P19">
+        <v>0.823196815731233</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.598902892416334</v>
+        <v>3.421207135523616</v>
       </c>
       <c r="C20">
-        <v>0.8316585211115353</v>
+        <v>0.7049645834744922</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2912729186318259</v>
+        <v>0.07516788537426677</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>1.54662272123042</v>
       </c>
       <c r="G20">
-        <v>0.1225984493392787</v>
+        <v>1.064268949961857</v>
       </c>
       <c r="H20">
-        <v>0.09990578676706718</v>
+        <v>0.0002432931050040388</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001889348022656279</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6570707143727788</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.6048316698894638</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06823912205188165</v>
       </c>
       <c r="M20">
-        <v>1.429334799357449</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3557696991268244</v>
       </c>
       <c r="O20">
-        <v>0.4216734060798473</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6534064872564613</v>
+      </c>
+      <c r="P20">
+        <v>0.790971632900753</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.045965915040824</v>
+        <v>3.865546743229856</v>
       </c>
       <c r="C21">
-        <v>0.9241976304203092</v>
+        <v>0.7878880078829695</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3325615480414683</v>
+        <v>0.0798601400967387</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>1.685739095523473</v>
       </c>
       <c r="G21">
-        <v>0.1382773180156818</v>
+        <v>1.17380052912452</v>
       </c>
       <c r="H21">
-        <v>0.09871494086775101</v>
+        <v>7.84153651331998E-05</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.003057930279356746</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7029029038654926</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.6397062524893471</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.07172554822440347</v>
       </c>
       <c r="M21">
-        <v>1.61637916117563</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4016172028335063</v>
       </c>
       <c r="O21">
-        <v>0.4528862498766131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7402321661886759</v>
+      </c>
+      <c r="P21">
+        <v>0.7527172834012639</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.339192167763827</v>
+        <v>4.154790627876309</v>
       </c>
       <c r="C22">
-        <v>0.9849129359992901</v>
+        <v>0.8421968281144245</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3606471322867861</v>
+        <v>0.08258825009209936</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>1.770403849387449</v>
       </c>
       <c r="G22">
-        <v>0.1498858408714057</v>
+        <v>1.24374443270986</v>
       </c>
       <c r="H22">
-        <v>0.09868089618146314</v>
+        <v>0.0004480771417456619</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003955239231513197</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7320964789589652</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6615943251673642</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.07447448176459304</v>
       </c>
       <c r="M22">
-        <v>1.73975617135433</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4254575352495351</v>
       </c>
       <c r="O22">
-        <v>0.4777233208515099</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7933660222781</v>
+      </c>
+      <c r="P22">
+        <v>0.7287481513370793</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.182582914052261</v>
+        <v>4.005860968616105</v>
       </c>
       <c r="C23">
-        <v>0.9524839120383319</v>
+        <v>0.8118593809682864</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3455488366767483</v>
+        <v>0.08113415749210784</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>1.728159070636337</v>
       </c>
       <c r="G23">
-        <v>0.1435578045259902</v>
+        <v>1.209995590656433</v>
       </c>
       <c r="H23">
-        <v>0.09862751015600679</v>
+        <v>0.0002159359631710434</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003153875058190536</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7183108212860532</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6521983183710205</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07283181785230042</v>
       </c>
       <c r="M23">
-        <v>1.673793417257301</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4119106576786038</v>
       </c>
       <c r="O23">
-        <v>0.4640375311820009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7653070895250949</v>
+      </c>
+      <c r="P23">
+        <v>0.7411612957135922</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.591610652371855</v>
+        <v>3.433931354755089</v>
       </c>
       <c r="C24">
-        <v>0.830149444397307</v>
+        <v>0.7002211954909967</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2906150010669464</v>
+        <v>0.07569238876968321</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>1.565648608825086</v>
       </c>
       <c r="G24">
-        <v>0.1223634902722708</v>
+        <v>1.078723656860532</v>
       </c>
       <c r="H24">
-        <v>0.09993706736472063</v>
+        <v>0.0001083477765513319</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001419964940507334</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6644635948911457</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6139334006120123</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.06685748288560234</v>
       </c>
       <c r="M24">
-        <v>1.426294522557654</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3622221607023732</v>
       </c>
       <c r="O24">
-        <v>0.4212330355918681</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6588319508089953</v>
+      </c>
+      <c r="P24">
+        <v>0.7901451279197111</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.957389773329737</v>
+        <v>2.818710227513122</v>
       </c>
       <c r="C25">
-        <v>0.6989639376382968</v>
+        <v>0.5816647269479063</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2353642016446997</v>
+        <v>0.06992529090490862</v>
       </c>
       <c r="F25">
-        <v>1.757113814925091</v>
+        <v>1.395070894713754</v>
       </c>
       <c r="G25">
-        <v>0.1046132324260896</v>
+        <v>0.9419767576950591</v>
       </c>
       <c r="H25">
-        <v>0.1042184974658582</v>
+        <v>0.001485589465678228</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001213672728553661</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6090633307054958</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5748642046395318</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.06031107086650067</v>
       </c>
       <c r="M25">
-        <v>1.163208554323134</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3091267444993377</v>
       </c>
       <c r="O25">
-        <v>0.3918734774321848</v>
+        <v>0.5444843904489147</v>
+      </c>
+      <c r="P25">
+        <v>0.8458144680680988</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.379232916078365</v>
+        <v>2.246621080341754</v>
       </c>
       <c r="C2">
-        <v>0.4923923501973206</v>
+        <v>0.5129265747279135</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06572740299663415</v>
+        <v>0.06618272904544931</v>
       </c>
       <c r="F2">
-        <v>1.280252717183217</v>
+        <v>1.193323792647817</v>
       </c>
       <c r="G2">
-        <v>0.8535897289873304</v>
+        <v>0.7313514200690747</v>
       </c>
       <c r="H2">
-        <v>0.003602819016931158</v>
+        <v>0.003098399270726859</v>
       </c>
       <c r="I2">
-        <v>0.001577377617564935</v>
+        <v>0.001189831504046168</v>
       </c>
       <c r="J2">
-        <v>0.5747289409199681</v>
+        <v>0.5573845560097652</v>
       </c>
       <c r="K2">
-        <v>0.5533831837963064</v>
+        <v>0.4795726625441361</v>
       </c>
       <c r="L2">
-        <v>0.05498626392925132</v>
+        <v>0.2253224641537379</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1407695269334397</v>
       </c>
       <c r="N2">
-        <v>0.2684286884553586</v>
+        <v>0.05780915855098456</v>
       </c>
       <c r="O2">
-        <v>0.4612799062370243</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8886752670374296</v>
+        <v>0.2965421623572837</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4538898191609206</v>
+      </c>
+      <c r="R2">
+        <v>0.8735913472008434</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.073742374198162</v>
+        <v>1.964217633250769</v>
       </c>
       <c r="C3">
-        <v>0.434132249748302</v>
+        <v>0.4493890910105449</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06287255407448544</v>
+        <v>0.06375572449931433</v>
       </c>
       <c r="F3">
-        <v>1.199971736942445</v>
+        <v>1.124143434241802</v>
       </c>
       <c r="G3">
-        <v>0.7902706841323948</v>
+        <v>0.6824146126011641</v>
       </c>
       <c r="H3">
-        <v>0.005676150596752583</v>
+        <v>0.004865621196796233</v>
       </c>
       <c r="I3">
-        <v>0.002866301130783455</v>
+        <v>0.00205345338894336</v>
       </c>
       <c r="J3">
-        <v>0.5499066177971343</v>
+        <v>0.534669384537338</v>
       </c>
       <c r="K3">
-        <v>0.536405637831173</v>
+        <v>0.4695693153785392</v>
       </c>
       <c r="L3">
-        <v>0.05155664065143029</v>
+        <v>0.2270582856719905</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1326813059224996</v>
       </c>
       <c r="N3">
-        <v>0.2421148114672036</v>
+        <v>0.0532386119077124</v>
       </c>
       <c r="O3">
-        <v>0.4045422362605109</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9193194009251897</v>
+        <v>0.2673512345089648</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3984161612455352</v>
+      </c>
+      <c r="R3">
+        <v>0.8981337904015128</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.885779055270518</v>
+        <v>1.789990911481823</v>
       </c>
       <c r="C4">
-        <v>0.398567587945422</v>
+        <v>0.410641202186838</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06111111978921135</v>
+        <v>0.06225584517661487</v>
       </c>
       <c r="F4">
-        <v>1.151343276981251</v>
+        <v>1.082132070310593</v>
       </c>
       <c r="G4">
-        <v>0.7519854409828497</v>
+        <v>0.6528667932217473</v>
       </c>
       <c r="H4">
-        <v>0.007237857177154028</v>
+        <v>0.006196489273292805</v>
       </c>
       <c r="I4">
-        <v>0.003971191924922568</v>
+        <v>0.002832514172118827</v>
       </c>
       <c r="J4">
-        <v>0.5350537605695962</v>
+        <v>0.5207426270993238</v>
       </c>
       <c r="K4">
-        <v>0.5262634921740315</v>
+        <v>0.4635569037939362</v>
       </c>
       <c r="L4">
-        <v>0.04942639254402792</v>
+        <v>0.2280389501204745</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1284185756186567</v>
       </c>
       <c r="N4">
-        <v>0.2260503586118645</v>
+        <v>0.05042860244640579</v>
       </c>
       <c r="O4">
-        <v>0.369708020129778</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9387525339250633</v>
+        <v>0.2495732634136516</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3643184288243333</v>
+      </c>
+      <c r="R4">
+        <v>0.9138943598367959</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.807746487562525</v>
+        <v>1.717514611591042</v>
       </c>
       <c r="C5">
-        <v>0.3844304578525453</v>
+        <v>0.3952315613244366</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06038869045349626</v>
+        <v>0.06164075608810204</v>
       </c>
       <c r="F5">
-        <v>1.130913586554229</v>
+        <v>1.064395704663283</v>
       </c>
       <c r="G5">
-        <v>0.7355946717801061</v>
+        <v>0.6400955245782001</v>
       </c>
       <c r="H5">
-        <v>0.007948014861600405</v>
+        <v>0.006801765916369884</v>
       </c>
       <c r="I5">
-        <v>0.004574546961619408</v>
+        <v>0.00329923420040501</v>
       </c>
       <c r="J5">
-        <v>0.5286229089075505</v>
+        <v>0.5146223435043993</v>
       </c>
       <c r="K5">
-        <v>0.5216029099366111</v>
+        <v>0.4606057481339789</v>
       </c>
       <c r="L5">
-        <v>0.04859289625614593</v>
+        <v>0.2281716571528172</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.12670205400212</v>
       </c>
       <c r="N5">
-        <v>0.2197224710037631</v>
+        <v>0.04933105288271378</v>
       </c>
       <c r="O5">
-        <v>0.3554362094563785</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9468283197143634</v>
+        <v>0.2425647292319226</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3503397676205608</v>
+      </c>
+      <c r="R5">
+        <v>0.9205690713316947</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.793160895210491</v>
+        <v>1.703923041014548</v>
       </c>
       <c r="C6">
-        <v>0.3824697651099882</v>
+        <v>0.3930722877073549</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06026672722114812</v>
+        <v>0.06153757801727799</v>
       </c>
       <c r="F6">
-        <v>1.126590026793522</v>
+        <v>1.06057106141435</v>
       </c>
       <c r="G6">
-        <v>0.7317500074990448</v>
+        <v>0.6369506091500909</v>
       </c>
       <c r="H6">
-        <v>0.008075388359731983</v>
+        <v>0.00691038868003635</v>
       </c>
       <c r="I6">
-        <v>0.004781971781039118</v>
+        <v>0.003498636760641993</v>
       </c>
       <c r="J6">
-        <v>0.5269860594248428</v>
+        <v>0.5130587088791145</v>
       </c>
       <c r="K6">
-        <v>0.5201072326910037</v>
+        <v>0.4594694600500944</v>
       </c>
       <c r="L6">
-        <v>0.04850450281846008</v>
+        <v>0.227893450128672</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1262387585420086</v>
       </c>
       <c r="N6">
-        <v>0.2189152340894935</v>
+        <v>0.04920879188556881</v>
       </c>
       <c r="O6">
-        <v>0.3529750666118616</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.948187832466882</v>
+        <v>0.2416505217678946</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3479295224355141</v>
+      </c>
+      <c r="R6">
+        <v>0.9217915581264471</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.880282392656369</v>
+        <v>1.782840927437775</v>
       </c>
       <c r="C7">
-        <v>0.3994300590276225</v>
+        <v>0.4103186812449167</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06109653745134969</v>
+        <v>0.06228728850941057</v>
       </c>
       <c r="F7">
-        <v>1.148497784577728</v>
+        <v>1.07823744602355</v>
       </c>
       <c r="G7">
-        <v>0.7486711558830592</v>
+        <v>0.6532351754584909</v>
       </c>
       <c r="H7">
-        <v>0.007260702436564653</v>
+        <v>0.006222868945408466</v>
       </c>
       <c r="I7">
-        <v>0.004242542113788161</v>
+        <v>0.003148374740278292</v>
       </c>
       <c r="J7">
-        <v>0.5333972559418356</v>
+        <v>0.5124955393212645</v>
       </c>
       <c r="K7">
-        <v>0.5242176864964136</v>
+        <v>0.4609334148313451</v>
       </c>
       <c r="L7">
-        <v>0.04955350686473636</v>
+        <v>0.2268710215904157</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1276193147185474</v>
       </c>
       <c r="N7">
-        <v>0.2266278241209818</v>
+        <v>0.05066681702098208</v>
       </c>
       <c r="O7">
-        <v>0.3692656234896177</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9389031180521581</v>
+        <v>0.2503260561359184</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3637020287796844</v>
+      </c>
+      <c r="R7">
+        <v>0.9144515894724528</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.268021643750899</v>
+        <v>2.137252717436468</v>
       </c>
       <c r="C8">
-        <v>0.4736630865574796</v>
+        <v>0.4883758773628131</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06473789601151392</v>
+        <v>0.06548727008901256</v>
       </c>
       <c r="F8">
-        <v>1.249022474540155</v>
+        <v>1.162076573370086</v>
       </c>
       <c r="G8">
-        <v>0.8275190402770392</v>
+        <v>0.7218866975647131</v>
       </c>
       <c r="H8">
-        <v>0.004268930595667908</v>
+        <v>0.003682601011318454</v>
       </c>
       <c r="I8">
-        <v>0.002264960164605867</v>
+        <v>0.001808396992110772</v>
       </c>
       <c r="J8">
-        <v>0.5640077011642006</v>
+        <v>0.5256614113755091</v>
       </c>
       <c r="K8">
-        <v>0.5448446841339418</v>
+        <v>0.4710910378715383</v>
       </c>
       <c r="L8">
-        <v>0.05399540829334271</v>
+        <v>0.2238188502579916</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1361832142645945</v>
       </c>
       <c r="N8">
-        <v>0.2602180924074844</v>
+        <v>0.05676087605378655</v>
       </c>
       <c r="O8">
-        <v>0.4413786724095061</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8992412713092737</v>
+        <v>0.2879217832298195</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.433819898868812</v>
+      </c>
+      <c r="R8">
+        <v>0.8830829345449054</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.034022283735339</v>
+        <v>2.840770660206715</v>
       </c>
       <c r="C9">
-        <v>0.6194582120681673</v>
+        <v>0.6463692986150988</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07186762085531928</v>
+        <v>0.07156866845775056</v>
       </c>
       <c r="F9">
-        <v>1.456589313338526</v>
+        <v>1.33942834587323</v>
       </c>
       <c r="G9">
-        <v>0.9930605300569795</v>
+        <v>0.8538678982844488</v>
       </c>
       <c r="H9">
-        <v>0.0008290328175861728</v>
+        <v>0.000736314813319261</v>
       </c>
       <c r="I9">
-        <v>0.0006684478824450224</v>
+        <v>0.0008120935693582965</v>
       </c>
       <c r="J9">
-        <v>0.6302202422783978</v>
+        <v>0.5781819310704606</v>
       </c>
       <c r="K9">
-        <v>0.5913098488579536</v>
+        <v>0.4982797708622613</v>
       </c>
       <c r="L9">
-        <v>0.0622685350245753</v>
+        <v>0.219821887519398</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1606057432670696</v>
       </c>
       <c r="N9">
-        <v>0.3257425516456181</v>
+        <v>0.06807059788783221</v>
       </c>
       <c r="O9">
-        <v>0.5834180379350613</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8263648486683941</v>
+        <v>0.3610693822001707</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5722544603123367</v>
+      </c>
+      <c r="R9">
+        <v>0.8259412184423844</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.57935152039579</v>
+        <v>3.328437168214464</v>
       </c>
       <c r="C10">
-        <v>0.7309334561014111</v>
+        <v>0.7593052850131983</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07642492139232449</v>
+        <v>0.07551747263417585</v>
       </c>
       <c r="F10">
-        <v>1.591154333112641</v>
+        <v>1.445712458384264</v>
       </c>
       <c r="G10">
-        <v>1.103971102666478</v>
+        <v>0.9622469003086564</v>
       </c>
       <c r="H10">
-        <v>0.0002092687751891198</v>
+        <v>0.0002154663529312373</v>
       </c>
       <c r="I10">
-        <v>0.001488471293241034</v>
+        <v>0.001678025275539952</v>
       </c>
       <c r="J10">
-        <v>0.6738837287450679</v>
+        <v>0.5737800954552483</v>
       </c>
       <c r="K10">
-        <v>0.6185863235223152</v>
+        <v>0.5077650372580607</v>
       </c>
       <c r="L10">
-        <v>0.06964410227106654</v>
+        <v>0.2124223921707546</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1776301128813103</v>
       </c>
       <c r="N10">
-        <v>0.3642824549297927</v>
+        <v>0.07867135752400856</v>
       </c>
       <c r="O10">
-        <v>0.6799091472512728</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7776400308520373</v>
+        <v>0.405560217582007</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6649097647678843</v>
+      </c>
+      <c r="R10">
+        <v>0.7923989460112573</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.690428407616025</v>
+        <v>3.415359530880551</v>
       </c>
       <c r="C11">
-        <v>0.8001456601099051</v>
+        <v>0.8125870567620268</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07452866074798381</v>
+        <v>0.07272806691551903</v>
       </c>
       <c r="F11">
-        <v>1.469659938892832</v>
+        <v>1.319276726891061</v>
       </c>
       <c r="G11">
-        <v>1.035497843187329</v>
+        <v>0.9459693940507634</v>
       </c>
       <c r="H11">
-        <v>0.0187607333618196</v>
+        <v>0.01877242410288815</v>
       </c>
       <c r="I11">
-        <v>0.002406874765219058</v>
+        <v>0.00261844975081349</v>
       </c>
       <c r="J11">
-        <v>0.6342937372673987</v>
+        <v>0.4694713263479287</v>
       </c>
       <c r="K11">
-        <v>0.5629075309029474</v>
+        <v>0.4522361669376309</v>
       </c>
       <c r="L11">
-        <v>0.08744738843159894</v>
+        <v>0.1882333765651865</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1615096860652585</v>
       </c>
       <c r="N11">
-        <v>0.2961180824958092</v>
+        <v>0.1018233709892939</v>
       </c>
       <c r="O11">
-        <v>0.6538473373701947</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7746542698831256</v>
+        <v>0.3335888210109772</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6370273910766358</v>
+      </c>
+      <c r="R11">
+        <v>0.8131621070519017</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.673943427709276</v>
+        <v>3.39807847599667</v>
       </c>
       <c r="C12">
-        <v>0.8338090566991525</v>
+        <v>0.8364590787522275</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07524898558887649</v>
+        <v>0.07233035357761119</v>
       </c>
       <c r="F12">
-        <v>1.345834736679052</v>
+        <v>1.201902290870166</v>
       </c>
       <c r="G12">
-        <v>0.9601800990964335</v>
+        <v>0.9005663203500944</v>
       </c>
       <c r="H12">
-        <v>0.05743955401255363</v>
+        <v>0.05745830417520637</v>
       </c>
       <c r="I12">
-        <v>0.002477619825482336</v>
+        <v>0.002664637372614465</v>
       </c>
       <c r="J12">
-        <v>0.5944407526528437</v>
+        <v>0.4115007394733965</v>
       </c>
       <c r="K12">
-        <v>0.5148711846367817</v>
+        <v>0.4107935664775511</v>
       </c>
       <c r="L12">
-        <v>0.104235501977378</v>
+        <v>0.1724306098455273</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1466959128773766</v>
       </c>
       <c r="N12">
-        <v>0.2367578352228605</v>
+        <v>0.1220802162383805</v>
       </c>
       <c r="O12">
-        <v>0.6122870029987837</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7895803191047364</v>
+        <v>0.2690895318295361</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5955172328973717</v>
+      </c>
+      <c r="R12">
+        <v>0.8433611522578559</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.551252438585834</v>
+        <v>3.298106912274932</v>
       </c>
       <c r="C13">
-        <v>0.8432809988944427</v>
+        <v>0.8441072884233449</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07788505569914861</v>
+        <v>0.07408403423017074</v>
       </c>
       <c r="F13">
-        <v>1.209380758679117</v>
+        <v>1.083018578973508</v>
       </c>
       <c r="G13">
-        <v>0.870363789807854</v>
+        <v>0.8179348846566796</v>
       </c>
       <c r="H13">
-        <v>0.1132242245208062</v>
+        <v>0.1132495966111691</v>
       </c>
       <c r="I13">
-        <v>0.00220869398376955</v>
+        <v>0.002432564589422981</v>
       </c>
       <c r="J13">
-        <v>0.5495735582374408</v>
+        <v>0.3887413020735266</v>
       </c>
       <c r="K13">
-        <v>0.466829576692767</v>
+        <v>0.3759708315263772</v>
       </c>
       <c r="L13">
-        <v>0.1212250326808118</v>
+        <v>0.1608779037922545</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1317928933969306</v>
       </c>
       <c r="N13">
-        <v>0.1820921286238502</v>
+        <v>0.1404405443982526</v>
       </c>
       <c r="O13">
-        <v>0.5563261361256266</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8182954176854409</v>
+        <v>0.2080621790115131</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5414075825477909</v>
+      </c>
+      <c r="R13">
+        <v>0.8788365277385708</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.416492665423505</v>
+        <v>3.189374031800867</v>
       </c>
       <c r="C14">
-        <v>0.8392952923494192</v>
+        <v>0.8424312825955838</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08096234966800964</v>
+        <v>0.07690196924439441</v>
       </c>
       <c r="F14">
-        <v>1.108879652584676</v>
+        <v>0.9989499530709622</v>
       </c>
       <c r="G14">
-        <v>0.8009034190840509</v>
+        <v>0.7447363708852635</v>
       </c>
       <c r="H14">
-        <v>0.1626329370668884</v>
+        <v>0.1626537903171794</v>
       </c>
       <c r="I14">
-        <v>0.00198281665454747</v>
+        <v>0.002262973632794818</v>
       </c>
       <c r="J14">
-        <v>0.515838210154655</v>
+        <v>0.3857944070041697</v>
       </c>
       <c r="K14">
-        <v>0.4332365549042834</v>
+        <v>0.3540182181763107</v>
       </c>
       <c r="L14">
-        <v>0.133610554828941</v>
+        <v>0.1543047914616338</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1213119051080405</v>
       </c>
       <c r="N14">
-        <v>0.1474106767615666</v>
+        <v>0.1526029835871441</v>
       </c>
       <c r="O14">
-        <v>0.5110489983990618</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8454090261651501</v>
+        <v>0.1687026264511431</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4981222948626183</v>
+      </c>
+      <c r="R14">
+        <v>0.9059815286740047</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.359775429434762</v>
+        <v>3.143483898086117</v>
       </c>
       <c r="C15">
-        <v>0.8335315082857448</v>
+        <v>0.8387660418886185</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08166154751436139</v>
+        <v>0.07770915855286376</v>
       </c>
       <c r="F15">
-        <v>1.080713912372872</v>
+        <v>0.9766877997855801</v>
       </c>
       <c r="G15">
-        <v>0.779870957531557</v>
+        <v>0.7193994236952079</v>
       </c>
       <c r="H15">
-        <v>0.1751801190453079</v>
+        <v>0.1751956817578844</v>
       </c>
       <c r="I15">
-        <v>0.001985574638670329</v>
+        <v>0.002307774315784883</v>
       </c>
       <c r="J15">
-        <v>0.5060507076157847</v>
+        <v>0.3902436561639462</v>
       </c>
       <c r="K15">
-        <v>0.4243117670645873</v>
+        <v>0.3490863350039852</v>
       </c>
       <c r="L15">
-        <v>0.1362992899989095</v>
+        <v>0.1531425301712019</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1184673009935722</v>
       </c>
       <c r="N15">
-        <v>0.1392255625758594</v>
+        <v>0.1547610241571107</v>
       </c>
       <c r="O15">
-        <v>0.4969219719102256</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8542527777989548</v>
+        <v>0.1592368522298528</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4847875182304549</v>
+      </c>
+      <c r="R15">
+        <v>0.9129943657957824</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.149919182643544</v>
+        <v>2.971487542880482</v>
       </c>
       <c r="C16">
-        <v>0.7832841473638723</v>
+        <v>0.8006944852467086</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07892478584239271</v>
+        <v>0.0762289385063788</v>
       </c>
       <c r="F16">
-        <v>1.051488009581661</v>
+        <v>0.9639151270439612</v>
       </c>
       <c r="G16">
-        <v>0.7496309230815825</v>
+        <v>0.6615658480487525</v>
       </c>
       <c r="H16">
-        <v>0.1627037902619151</v>
+        <v>0.1626702603797412</v>
       </c>
       <c r="I16">
-        <v>0.001703736139837986</v>
+        <v>0.00208286753949416</v>
       </c>
       <c r="J16">
-        <v>0.495792167748462</v>
+        <v>0.438452043073795</v>
       </c>
       <c r="K16">
-        <v>0.4216873335195359</v>
+        <v>0.3561356613071496</v>
       </c>
       <c r="L16">
-        <v>0.1292270925163237</v>
+        <v>0.1585891897368192</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1168598605396589</v>
       </c>
       <c r="N16">
-        <v>0.1356066475888156</v>
+        <v>0.1438458345699019</v>
       </c>
       <c r="O16">
-        <v>0.468229715794358</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8663757603076832</v>
+        <v>0.1539792572471868</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.458752467428603</v>
+      </c>
+      <c r="R16">
+        <v>0.9096104746717728</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.060309047252929</v>
+        <v>2.89404740790178</v>
       </c>
       <c r="C17">
-        <v>0.747113761347606</v>
+        <v>0.7702756506127457</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07495685548216535</v>
+        <v>0.07298018576623733</v>
       </c>
       <c r="F17">
-        <v>1.081681524746116</v>
+        <v>0.99721742084742</v>
       </c>
       <c r="G17">
-        <v>0.7629774231853617</v>
+        <v>0.6596537614124998</v>
       </c>
       <c r="H17">
-        <v>0.1251215587788153</v>
+        <v>0.1250469835732559</v>
       </c>
       <c r="I17">
-        <v>0.001661982494550962</v>
+        <v>0.00204509993661528</v>
       </c>
       <c r="J17">
-        <v>0.5057200240800626</v>
+        <v>0.4722281310313434</v>
       </c>
       <c r="K17">
-        <v>0.4372257334508944</v>
+        <v>0.3725663860803792</v>
       </c>
       <c r="L17">
-        <v>0.1170311092649854</v>
+        <v>0.1663759927124744</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1206948096494962</v>
       </c>
       <c r="N17">
-        <v>0.1503715292421575</v>
+        <v>0.1294512306728208</v>
       </c>
       <c r="O17">
-        <v>0.4699471311194685</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8612977528074026</v>
+        <v>0.1698282980125967</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4612696234237035</v>
+      </c>
+      <c r="R17">
+        <v>0.8949760424721163</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.066779227767768</v>
+        <v>2.89668979493041</v>
       </c>
       <c r="C18">
-        <v>0.717987443886841</v>
+        <v>0.7449817635723264</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07105009249751504</v>
+        <v>0.06951004436174646</v>
       </c>
       <c r="F18">
-        <v>1.170326842445618</v>
+        <v>1.079960600400796</v>
       </c>
       <c r="G18">
-        <v>0.818376905584131</v>
+        <v>0.7005127644896163</v>
       </c>
       <c r="H18">
-        <v>0.07234205323191389</v>
+        <v>0.07225587289827473</v>
       </c>
       <c r="I18">
-        <v>0.001427328036108122</v>
+        <v>0.001759586075977815</v>
       </c>
       <c r="J18">
-        <v>0.5355907865586147</v>
+        <v>0.5086023241102282</v>
       </c>
       <c r="K18">
-        <v>0.4724819739386703</v>
+        <v>0.402369374901042</v>
       </c>
       <c r="L18">
-        <v>0.1003982773414052</v>
+        <v>0.1784304956056708</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1307291450993624</v>
       </c>
       <c r="N18">
-        <v>0.1861393563379679</v>
+        <v>0.1111948459012027</v>
       </c>
       <c r="O18">
-        <v>0.49867247205772</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8434721154794218</v>
+        <v>0.2090096296825337</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4896915257244601</v>
+      </c>
+      <c r="R18">
+        <v>0.8692458280958775</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.141308730341507</v>
+        <v>2.957088297804034</v>
       </c>
       <c r="C19">
-        <v>0.6990391016489355</v>
+        <v>0.7292769024514882</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06971690862041702</v>
+        <v>0.06848035195619762</v>
       </c>
       <c r="F19">
-        <v>1.299605761288248</v>
+        <v>1.197175994652966</v>
       </c>
       <c r="G19">
-        <v>0.900432284436036</v>
+        <v>0.766925450913476</v>
       </c>
       <c r="H19">
-        <v>0.02693994229808538</v>
+        <v>0.02687389077087943</v>
       </c>
       <c r="I19">
-        <v>0.001562838278022838</v>
+        <v>0.001925852402050232</v>
       </c>
       <c r="J19">
-        <v>0.5775924742726346</v>
+        <v>0.5471222956657869</v>
       </c>
       <c r="K19">
-        <v>0.5197990030455131</v>
+        <v>0.4400448042885117</v>
       </c>
       <c r="L19">
-        <v>0.08425624089626993</v>
+        <v>0.1927494229608726</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1447207569636539</v>
       </c>
       <c r="N19">
-        <v>0.2431085420763139</v>
+        <v>0.09362349277900961</v>
       </c>
       <c r="O19">
-        <v>0.5476863782758485</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.823196815731233</v>
+        <v>0.2713138711042262</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5376639562230068</v>
+      </c>
+      <c r="R19">
+        <v>0.8417646104885392</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.421207135523616</v>
+        <v>3.193825382671605</v>
       </c>
       <c r="C20">
-        <v>0.7049645834744922</v>
+        <v>0.7375601198283732</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07516788537426677</v>
+        <v>0.07428089672062921</v>
       </c>
       <c r="F20">
-        <v>1.54662272123042</v>
+        <v>1.41378293963794</v>
       </c>
       <c r="G20">
-        <v>1.064268949961857</v>
+        <v>0.9118094566498627</v>
       </c>
       <c r="H20">
-        <v>0.0002432931050040388</v>
+        <v>0.0002406856589121098</v>
       </c>
       <c r="I20">
-        <v>0.001889348022656279</v>
+        <v>0.002267519747026547</v>
       </c>
       <c r="J20">
-        <v>0.6570707143727788</v>
+        <v>0.5931288127755181</v>
       </c>
       <c r="K20">
-        <v>0.6048316698894638</v>
+        <v>0.502514722365909</v>
       </c>
       <c r="L20">
-        <v>0.06823912205188165</v>
+        <v>0.2133650939524543</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1719087432599657</v>
       </c>
       <c r="N20">
-        <v>0.3557696991268244</v>
+        <v>0.0761703001706806</v>
       </c>
       <c r="O20">
-        <v>0.6534064872564613</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.790971632900753</v>
+        <v>0.3948773759360762</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6401680191863406</v>
+      </c>
+      <c r="R20">
+        <v>0.8017588207940882</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.865546743229856</v>
+        <v>3.550372246226175</v>
       </c>
       <c r="C21">
-        <v>0.7878880078829695</v>
+        <v>0.7983920258375576</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0798601400967387</v>
+        <v>0.07955354846953622</v>
       </c>
       <c r="F21">
-        <v>1.685739095523473</v>
+        <v>1.503760295542875</v>
       </c>
       <c r="G21">
-        <v>1.17380052912452</v>
+        <v>1.083492258643545</v>
       </c>
       <c r="H21">
-        <v>7.84153651331998E-05</v>
+        <v>4.279631561976416E-05</v>
       </c>
       <c r="I21">
-        <v>0.003057930279356746</v>
+        <v>0.003220856653008752</v>
       </c>
       <c r="J21">
-        <v>0.7029029038654926</v>
+        <v>0.487274735979355</v>
       </c>
       <c r="K21">
-        <v>0.6397062524893471</v>
+        <v>0.5056881635893617</v>
       </c>
       <c r="L21">
-        <v>0.07172554822440347</v>
+        <v>0.2063291949392507</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1840476313483137</v>
       </c>
       <c r="N21">
-        <v>0.4016172028335063</v>
+        <v>0.08367514009132648</v>
       </c>
       <c r="O21">
-        <v>0.7402321661886759</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7527172834012639</v>
+        <v>0.4502575138056812</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7198920458422862</v>
+      </c>
+      <c r="R21">
+        <v>0.7792712200173213</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.154790627876309</v>
+        <v>3.778593291555126</v>
       </c>
       <c r="C22">
-        <v>0.8421968281144245</v>
+        <v>0.83602506905072</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08258825009209936</v>
+        <v>0.08282183307160285</v>
       </c>
       <c r="F22">
-        <v>1.770403849387449</v>
+        <v>1.554626707385893</v>
       </c>
       <c r="G22">
-        <v>1.24374443270986</v>
+        <v>1.204025651228676</v>
       </c>
       <c r="H22">
-        <v>0.0004480771417456619</v>
+        <v>0.0002991555171578675</v>
       </c>
       <c r="I22">
-        <v>0.003955239231513197</v>
+        <v>0.00377187838456905</v>
       </c>
       <c r="J22">
-        <v>0.7320964789589652</v>
+        <v>0.418875204683502</v>
       </c>
       <c r="K22">
-        <v>0.6615943251673642</v>
+        <v>0.5058475268885942</v>
       </c>
       <c r="L22">
-        <v>0.07447448176459304</v>
+        <v>0.2011492804153576</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1915833395736968</v>
       </c>
       <c r="N22">
-        <v>0.4254575352495351</v>
+        <v>0.08940619401349892</v>
       </c>
       <c r="O22">
-        <v>0.7933660222781</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7287481513370793</v>
+        <v>0.4802589648206492</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7680111926267656</v>
+      </c>
+      <c r="R22">
+        <v>0.767076820135685</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.005860968616105</v>
+        <v>3.667387805072451</v>
       </c>
       <c r="C23">
-        <v>0.8118593809682864</v>
+        <v>0.8178733782978043</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08113415749210784</v>
+        <v>0.0809117821829819</v>
       </c>
       <c r="F23">
-        <v>1.728159070636337</v>
+        <v>1.533502645403658</v>
       </c>
       <c r="G23">
-        <v>1.209995590656433</v>
+        <v>1.132828765372494</v>
       </c>
       <c r="H23">
-        <v>0.0002159359631710434</v>
+        <v>0.0001374100546420731</v>
       </c>
       <c r="I23">
-        <v>0.003153875058190536</v>
+        <v>0.003111423424405402</v>
       </c>
       <c r="J23">
-        <v>0.7183108212860532</v>
+        <v>0.4695717849291583</v>
       </c>
       <c r="K23">
-        <v>0.6521983183710205</v>
+        <v>0.509747000291533</v>
       </c>
       <c r="L23">
-        <v>0.07283181785230042</v>
+        <v>0.205264632954048</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1891747189166111</v>
       </c>
       <c r="N23">
-        <v>0.4119106576786038</v>
+        <v>0.08582270134004943</v>
       </c>
       <c r="O23">
-        <v>0.7653070895250949</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7411612957135922</v>
+        <v>0.462884818712439</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7431551813972987</v>
+      </c>
+      <c r="R23">
+        <v>0.7716834527538126</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.433931354755089</v>
+        <v>3.205084437656296</v>
       </c>
       <c r="C24">
-        <v>0.7002211954909967</v>
+        <v>0.7331790592758693</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07569238876968321</v>
+        <v>0.07484378783815515</v>
       </c>
       <c r="F24">
-        <v>1.565648608825086</v>
+        <v>1.431305760098709</v>
       </c>
       <c r="G24">
-        <v>1.078723656860532</v>
+        <v>0.9235741764288719</v>
       </c>
       <c r="H24">
-        <v>0.0001083477765513319</v>
+        <v>0.0001062674300975619</v>
       </c>
       <c r="I24">
-        <v>0.001419964940507334</v>
+        <v>0.00169674715973489</v>
       </c>
       <c r="J24">
-        <v>0.6644635948911457</v>
+        <v>0.6006959952186151</v>
       </c>
       <c r="K24">
-        <v>0.6139334006120123</v>
+        <v>0.5101239988858879</v>
       </c>
       <c r="L24">
-        <v>0.06685748288560234</v>
+        <v>0.2162708209841817</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1747137020871179</v>
       </c>
       <c r="N24">
-        <v>0.3622221607023732</v>
+        <v>0.07446562543547586</v>
       </c>
       <c r="O24">
-        <v>0.6588319508089953</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7901451279197111</v>
+        <v>0.4019041993364851</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6454933296574055</v>
+      </c>
+      <c r="R24">
+        <v>0.7990865183679432</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.818710227513122</v>
+        <v>2.646100336825043</v>
       </c>
       <c r="C25">
-        <v>0.5816647269479063</v>
+        <v>0.6070632844914883</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06992529090490862</v>
+        <v>0.06985728546719105</v>
       </c>
       <c r="F25">
-        <v>1.395070894713754</v>
+        <v>1.288365499120758</v>
       </c>
       <c r="G25">
-        <v>0.9419767576950591</v>
+        <v>0.8076204909705211</v>
       </c>
       <c r="H25">
-        <v>0.001485589465678228</v>
+        <v>0.001297774122167139</v>
       </c>
       <c r="I25">
-        <v>0.001213672728553661</v>
+        <v>0.001343471198874902</v>
       </c>
       <c r="J25">
-        <v>0.6090633307054958</v>
+        <v>0.5706678332734043</v>
       </c>
       <c r="K25">
-        <v>0.5748642046395318</v>
+        <v>0.4888127914144533</v>
       </c>
       <c r="L25">
-        <v>0.06031107086650067</v>
+        <v>0.2202095627896625</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1526561236996393</v>
       </c>
       <c r="N25">
-        <v>0.3091267444993377</v>
+        <v>0.06520035678989089</v>
       </c>
       <c r="O25">
-        <v>0.5444843904489147</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8458144680680988</v>
+        <v>0.3421354593416623</v>
       </c>
       <c r="Q25">
+        <v>0.5346275191581</v>
+      </c>
+      <c r="R25">
+        <v>0.8413115231759711</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
